--- a/Data/ResultadosDepartamentales.xlsx
+++ b/Data/ResultadosDepartamentales.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/Departamentales-vs-COVID/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A67DD-619F-F540-9C27-B4923173F0B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B96379-5BC2-4C4D-AAB5-03EAB582FC15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="500" windowWidth="25040" windowHeight="13780" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25040" windowHeight="11880" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ResultadosDepartamentales" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,12 +64,367 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00BBD228-957D-CC4B-A74E-ED6ACCD3E715}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dicotómica, cuando el partido que gana la elección departamental es el mismo que gana la elección nacional, adquiere =1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1000F6B6-4E0F-9A42-8770-464258DEABF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dicotómica adquiere valor 1 cuando el partido que gana e lo departamental es igual al que gobierna en lo nacional, 0 cuando no coincide
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8A9E7C93-B929-2E4C-B0A9-6F387A2E0529}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fuente: otu.opp.gub.uy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Personas de 25 años o más por máximo nivel educativo alcanzado.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Observatorio territorial OPP, para las elecciones de 2020 se toman los datos de 2019 (más recientes disponiibles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{18E76EED-5B11-8A4A-89D9-EE4555584897}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Según mis cálculos usando ECH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{FB70BB77-452E-E240-901F-488C5BA744E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IDH departamental, fuente Observatorio Territorial OPP, Datos del 2020 corresponden  al más reciente disponible 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{83C062E5-BF08-B143-8F36-E8589B091D26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Informalidad laboral. Fuente OTU - OPP, (2020 corresponde a 2019)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{80C4A0E6-7270-B541-86F9-AB11850F142D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingreso medio mensual per cápita con valor locativo a pesos constantes de 2005. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fuente: OTU - OPP
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valro 2020 corresponde a 2019</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F5FB3BB0-6D4F-9D45-9068-70410B46A047}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Federico Acosta y Lara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Recursos humanos de los gobiernos departamentales cada 1000 habitantes. Fuete: OTU - OPP.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2010 corresponde a 2011, y 2020 a 2019</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="68">
   <si>
     <t>Votos_Pgob</t>
   </si>
@@ -162,12 +518,128 @@
   <si>
     <t>V_PC</t>
   </si>
+  <si>
+    <t>Incumbente</t>
+  </si>
+  <si>
+    <t>Alternancia_Nac</t>
+  </si>
+  <si>
+    <t>Congruencia_DEP_NAC</t>
+  </si>
+  <si>
+    <t>Alineamiento</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Artigas</t>
+  </si>
+  <si>
+    <t>Canelones</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Durazno</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Lavalleja</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Treinta y Tres</t>
+  </si>
+  <si>
+    <t>Terciaria</t>
+  </si>
+  <si>
+    <t>Sin_Instruccion</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ruralidad</t>
+  </si>
+  <si>
+    <t>Competitividad</t>
+  </si>
+  <si>
+    <t>Paysandú</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Tacuarembó</t>
+  </si>
+  <si>
+    <t>IDH</t>
+  </si>
+  <si>
+    <t>Informalidad</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>Funcionarios</t>
+  </si>
+  <si>
+    <t>Turnout_Dep</t>
+  </si>
+  <si>
+    <t>Turnout_Nac</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +672,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006682"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,10 +718,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -222,10 +740,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,21 +1069,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB94FE-8E7B-274E-A819-0B36A18610BC}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="9" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -583,8 +1111,56 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -614,8 +1190,57 @@
         <f>IF(D2="PC",G2,IF(D2="PN",F2,IF(D2="FA",E2)))</f>
         <v>0.57139246904220364</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1">
+        <v>0.88197927114677366</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.91958801498127341</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <f>LARGE(E2:G2,1)-LARGE(E2:G2,2)</f>
+        <v>0.31591694044309659</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -645,8 +1270,57 @@
         <f t="shared" ref="I3:I66" si="1">IF(D3="PC",G3,IF(D3="PN",F3,IF(D3="FA",E3)))</f>
         <v>0.43929143344058058</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1">
+        <v>0.89995835178855932</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.92990184199781578</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P66" si="2">LARGE(E3:G3,1)-LARGE(E3:G3,2)</f>
+        <v>5.2940485110259006E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -676,8 +1350,57 @@
         <f t="shared" si="1"/>
         <v>0.66384682332463008</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <v>0.9056086257448217</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.92649802371541501</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47893820713664048</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -707,8 +1430,57 @@
         <f t="shared" si="1"/>
         <v>0.41197342954768107</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <v>0.89468227246005028</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.92700142671715602</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>4.6092088600033443E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -738,8 +1510,57 @@
         <f t="shared" si="1"/>
         <v>0.51401454905744015</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1">
+        <v>0.89779723308129877</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.92969300926143572</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18991995411049989</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -769,8 +1590,57 @@
         <f t="shared" si="1"/>
         <v>0.79099520905923348</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>0.90438207779419011</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.93416167516459581</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.68488675958188161</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -800,8 +1670,57 @@
         <f t="shared" si="1"/>
         <v>0.38426184709024286</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>0.90851468015874504</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.93170105525456359</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1551456431277594E-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -831,8 +1750,57 @@
         <f t="shared" si="1"/>
         <v>0.51631136232142061</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1">
+        <v>0.90868281635459214</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.93727551289595978</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19406738172593352</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -862,8 +1830,57 @@
         <f t="shared" si="1"/>
         <v>0.37317292816403813</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>0.90861788617886174</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.93068252512152172</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="2"/>
+        <v>3.7014801302329869E-2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -893,8 +1910,57 @@
         <f t="shared" si="1"/>
         <v>0.56358535540638188</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <v>0.86843256034074778</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.90803134870019442</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29174745694545712</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -924,8 +1990,57 @@
         <f t="shared" si="1"/>
         <v>0.42037727571835931</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1">
+        <v>0.87656219957700443</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.91295373064062479</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6495393726694487E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -955,8 +2070,57 @@
         <f t="shared" si="1"/>
         <v>0.399994057876285</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>0.88399212081418255</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.91875049510179296</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="2"/>
+        <v>7.0384455404361557E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -986,8 +2150,57 @@
         <f t="shared" si="1"/>
         <v>0.45702612429917688</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1">
+        <v>0.8749152011689193</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.90774016564505755</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="2"/>
+        <v>6.4624835977573625E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -1017,8 +2230,57 @@
         <f t="shared" si="1"/>
         <v>0.44140515969536265</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1">
+        <v>0.90080997108528937</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.92747256720357218</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6538139479245593E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -1048,8 +2310,57 @@
         <f t="shared" si="1"/>
         <v>0.40302103604855899</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1">
+        <v>0.87546649359078366</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.91160047462832416</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1868620675960153E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -1079,8 +2390,57 @@
         <f t="shared" si="1"/>
         <v>0.70585302000872652</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1">
+        <v>0.90446793516560964</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.93109253207712661</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50690332232126156</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -1110,8 +2470,57 @@
         <f t="shared" si="1"/>
         <v>0.38849169343418644</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1">
+        <v>0.89187690601607983</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.9238873160996891</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2656374123579579E-2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -1141,8 +2550,57 @@
         <f t="shared" si="1"/>
         <v>0.69893054258995402</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1">
+        <v>0.90090741423828846</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.92763138394048072</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55793576704498937</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -1172,8 +2630,57 @@
         <f t="shared" si="1"/>
         <v>0.5576675547041039</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1">
+        <v>0.9090092786590841</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.93708935611038102</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28302451582003768</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -1203,8 +2710,57 @@
         <f t="shared" si="1"/>
         <v>0.39788573073917155</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1">
+        <v>0.87131516226726158</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.91342435198676097</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="2"/>
+        <v>4.4876804738595677E-2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -1234,8 +2790,57 @@
         <f t="shared" si="1"/>
         <v>0.61204653557925548</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="1">
+        <v>0.88547969533249138</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.91031977396062247</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34751941241039125</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -1265,8 +2870,57 @@
         <f t="shared" si="1"/>
         <v>0.57588399555899472</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1">
+        <v>0.90283093372213108</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.92120430759896865</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23678632708676783</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -1296,8 +2950,57 @@
         <f t="shared" si="1"/>
         <v>0.55009825467145734</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="1">
+        <v>0.89978804313945515</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.91706534120327221</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21436960035348429</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -1327,8 +3030,57 @@
         <f t="shared" si="1"/>
         <v>0.57569085939872455</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="1">
+        <v>0.88790023592854739</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.91464288914777314</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26829638627391433</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -1358,8 +3110,57 @@
         <f t="shared" si="1"/>
         <v>0.72891340438065655</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="1">
+        <v>0.88564788465186872</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.90597071686632435</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55090237240936113</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -1389,8 +3190,57 @@
         <f t="shared" si="1"/>
         <v>0.40770762515839654</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="1">
+        <v>0.89591480006487301</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.9126731326724169</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="2"/>
+        <v>7.4823501015748861E-3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1420,8 +3270,57 @@
         <f t="shared" si="1"/>
         <v>0.68954591096731011</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1">
+        <v>0.90604908818891272</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.93126542835174619</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48622113131763922</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -1451,8 +3350,57 @@
         <f t="shared" si="1"/>
         <v>0.47333499470437979</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="1">
+        <v>0.89301212863024371</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.90875557244409022</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7735135920918743E-2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1482,8 +3430,57 @@
         <f t="shared" si="1"/>
         <v>0.5847330061321877</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="1">
+        <v>0.84474042015358397</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.87636044542534974</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="2"/>
+        <v>0.32593428017637122</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
+      </c>
+      <c r="W30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -1513,8 +3510,57 @@
         <f t="shared" si="1"/>
         <v>0.47420898162666347</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="1">
+        <v>0.86717878393454817</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.89894685507936323</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="2"/>
+        <v>4.0954716627132515E-2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -1544,8 +3590,57 @@
         <f t="shared" si="1"/>
         <v>0.49854201901207207</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1">
+        <v>0.87703953761955911</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.91841808488825094</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="2"/>
+        <v>9.6547501020586679E-2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" t="s">
+        <v>55</v>
+      </c>
+      <c r="U32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" t="s">
+        <v>55</v>
+      </c>
+      <c r="W32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1575,8 +3670,57 @@
         <f t="shared" si="1"/>
         <v>0.50044707641342112</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1">
+        <v>0.86373189506735537</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.9013472844789272</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23780067721082954</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -1606,8 +3750,57 @@
         <f t="shared" si="1"/>
         <v>0.49354534005037781</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1">
+        <v>0.89671601757574693</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.92020741838192499</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12255982367758184</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -1637,8 +3830,57 @@
         <f t="shared" si="1"/>
         <v>0.39062798365434803</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="1">
+        <v>0.86350445201714854</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.89563141508707467</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="2"/>
+        <v>2.729367433452573E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>55</v>
+      </c>
+      <c r="R35" t="s">
+        <v>55</v>
+      </c>
+      <c r="S35" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" t="s">
+        <v>55</v>
+      </c>
+      <c r="X35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -1668,8 +3910,57 @@
         <f t="shared" si="1"/>
         <v>0.59524597065191243</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1">
+        <v>0.90519611312229509</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.92677308328138974</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25909610295886454</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1699,8 +3990,57 @@
         <f t="shared" si="1"/>
         <v>0.52056161718683924</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1">
+        <v>0.88699996999069708</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.91432288162203379</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17733231836251379</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" t="s">
+        <v>55</v>
+      </c>
+      <c r="T37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" t="s">
+        <v>55</v>
+      </c>
+      <c r="X37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -1730,8 +4070,57 @@
         <f t="shared" si="1"/>
         <v>0.71410699014981149</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1">
+        <v>0.88396444320011203</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.91262666610604215</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49730782630728781</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" t="s">
+        <v>55</v>
+      </c>
+      <c r="W38" t="s">
+        <v>55</v>
+      </c>
+      <c r="X38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -1761,8 +4150,57 @@
         <f t="shared" si="1"/>
         <v>0.44688666390188991</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="1">
+        <v>0.90416755946003857</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.92880258899676371</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1730552757864776E-2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T39" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" t="s">
+        <v>55</v>
+      </c>
+      <c r="X39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -1792,8 +4230,57 @@
         <f t="shared" si="1"/>
         <v>0.44738145718984684</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="1">
+        <v>0.862772250145314</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.90494519720376287</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9279727346582924E-2</v>
+      </c>
+      <c r="Q40">
+        <v>2.9360864119999999</v>
+      </c>
+      <c r="R40">
+        <v>51.787312759999999</v>
+      </c>
+      <c r="S40">
+        <v>36.949732449999999</v>
+      </c>
+      <c r="T40">
+        <v>8.3268683729999999</v>
+      </c>
+      <c r="U40" s="8">
+        <v>6.7319180000000003</v>
+      </c>
+      <c r="V40">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="W40">
+        <v>46.2</v>
+      </c>
+      <c r="X40">
+        <v>5419.1</v>
+      </c>
+      <c r="Y40">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -1823,8 +4310,57 @@
         <f t="shared" si="1"/>
         <v>0.52488816009424799</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="1">
+        <v>0.87665210534395888</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.90980223391561199</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29669972776336107</v>
+      </c>
+      <c r="Q41">
+        <v>1.7904692820000001</v>
+      </c>
+      <c r="R41">
+        <v>42.76415626</v>
+      </c>
+      <c r="S41">
+        <v>43.814641250000001</v>
+      </c>
+      <c r="T41">
+        <v>11.630733206999999</v>
+      </c>
+      <c r="U41" s="8">
+        <v>10.346676</v>
+      </c>
+      <c r="V41">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="W41">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="X41">
+        <v>6564.1</v>
+      </c>
+      <c r="Y41">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -1854,8 +4390,57 @@
         <f t="shared" si="1"/>
         <v>0.4927187268079492</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="1">
+        <v>0.89795041909782902</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.92328921597720937</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13840191308650118</v>
+      </c>
+      <c r="Q42">
+        <v>3.5899175269999999</v>
+      </c>
+      <c r="R42">
+        <v>50.967546149999997</v>
+      </c>
+      <c r="S42">
+        <v>37.603984429999997</v>
+      </c>
+      <c r="T42">
+        <v>7.8385518940000001</v>
+      </c>
+      <c r="U42" s="8">
+        <v>10.150722999999999</v>
+      </c>
+      <c r="V42">
+        <v>0.72</v>
+      </c>
+      <c r="W42">
+        <v>50.3</v>
+      </c>
+      <c r="X42">
+        <v>5282.8</v>
+      </c>
+      <c r="Y42">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -1885,8 +4470,57 @@
         <f t="shared" si="1"/>
         <v>0.51188211864217148</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="1">
+        <v>0.8959661574241149</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.92346728981335691</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20625881089306097</v>
+      </c>
+      <c r="Q43">
+        <v>1.3985131479999999</v>
+      </c>
+      <c r="R43">
+        <v>46.055711070000001</v>
+      </c>
+      <c r="S43">
+        <v>43.054472029999999</v>
+      </c>
+      <c r="T43">
+        <v>9.4913037490000001</v>
+      </c>
+      <c r="U43" s="8">
+        <v>12.125382999999999</v>
+      </c>
+      <c r="V43">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="W43">
+        <v>29.5</v>
+      </c>
+      <c r="X43">
+        <v>7921.7</v>
+      </c>
+      <c r="Y43">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -1916,8 +4550,57 @@
         <f t="shared" si="1"/>
         <v>0.60989077230969546</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="1">
+        <v>0.89551304197616166</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.92827113942703587</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34612880669351143</v>
+      </c>
+      <c r="Q44">
+        <v>1.6567153610000001</v>
+      </c>
+      <c r="R44">
+        <v>49.84070045</v>
+      </c>
+      <c r="S44">
+        <v>41.25268449</v>
+      </c>
+      <c r="T44">
+        <v>7.2498997000000003</v>
+      </c>
+      <c r="U44" s="8">
+        <v>8.3598099999999995</v>
+      </c>
+      <c r="V44">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="W44">
+        <v>36.6</v>
+      </c>
+      <c r="X44">
+        <v>6800</v>
+      </c>
+      <c r="Y44">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -1947,8 +4630,57 @@
         <f t="shared" si="1"/>
         <v>0.59575461905750471</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="1">
+        <v>0.89207833696004446</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.92481622778449801</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36064978202200543</v>
+      </c>
+      <c r="Q45">
+        <v>3.4472192430000002</v>
+      </c>
+      <c r="R45">
+        <v>41.987130380000004</v>
+      </c>
+      <c r="S45">
+        <v>44.446146769999999</v>
+      </c>
+      <c r="T45">
+        <v>10.119503601</v>
+      </c>
+      <c r="U45" s="8">
+        <v>8.699503</v>
+      </c>
+      <c r="V45">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="W45">
+        <v>33.9</v>
+      </c>
+      <c r="X45">
+        <v>5888.5</v>
+      </c>
+      <c r="Y45">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -1978,8 +4710,57 @@
         <f t="shared" si="1"/>
         <v>0.42240536387763655</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="1">
+        <v>0.90582578674330749</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.9296925858951175</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0286352842575655E-3</v>
+      </c>
+      <c r="Q46">
+        <v>3.097675411</v>
+      </c>
+      <c r="R46">
+        <v>52.033127180000001</v>
+      </c>
+      <c r="S46">
+        <v>36.349257129999998</v>
+      </c>
+      <c r="T46">
+        <v>8.5199402860000006</v>
+      </c>
+      <c r="U46" s="8">
+        <v>13.276405</v>
+      </c>
+      <c r="V46">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="W46">
+        <v>34</v>
+      </c>
+      <c r="X46">
+        <v>7991</v>
+      </c>
+      <c r="Y46">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -2009,8 +4790,57 @@
         <f t="shared" si="1"/>
         <v>0.52935095783755248</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="1">
+        <v>0.90196195123886602</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.93056134707412486</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20894274968658583</v>
+      </c>
+      <c r="Q47">
+        <v>3.7989975579999999</v>
+      </c>
+      <c r="R47">
+        <v>47.248425650000001</v>
+      </c>
+      <c r="S47">
+        <v>41.107826760000002</v>
+      </c>
+      <c r="T47">
+        <v>7.8447500329999995</v>
+      </c>
+      <c r="U47" s="8">
+        <v>12.738279</v>
+      </c>
+      <c r="V47">
+        <v>0.754</v>
+      </c>
+      <c r="W47">
+        <v>36.6</v>
+      </c>
+      <c r="X47">
+        <v>6957.9</v>
+      </c>
+      <c r="Y47">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -2040,8 +4870,57 @@
         <f t="shared" si="1"/>
         <v>0.47972998418317392</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="1">
+        <v>0.8819289913314956</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.90996795299773003</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17454997363862318</v>
+      </c>
+      <c r="Q48">
+        <v>1.0068805119999999</v>
+      </c>
+      <c r="R48">
+        <v>36.394030430000001</v>
+      </c>
+      <c r="S48">
+        <v>51.28307006</v>
+      </c>
+      <c r="T48">
+        <v>11.316018995</v>
+      </c>
+      <c r="U48" s="8">
+        <v>2.9504969999999999</v>
+      </c>
+      <c r="V48">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="W48">
+        <v>31</v>
+      </c>
+      <c r="X48">
+        <v>8316.2000000000007</v>
+      </c>
+      <c r="Y48">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -2071,8 +4950,57 @@
         <f t="shared" si="1"/>
         <v>0.45899444704093029</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="1">
+        <v>0.83345248694654872</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.87699874677256184</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26105131649377089</v>
+      </c>
+      <c r="Q49">
+        <v>0.78538898800000001</v>
+      </c>
+      <c r="R49">
+        <v>27.06493094</v>
+      </c>
+      <c r="S49">
+        <v>47.03830507</v>
+      </c>
+      <c r="T49">
+        <v>25.111374998999999</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="W49">
+        <v>24.6</v>
+      </c>
+      <c r="X49">
+        <v>9483.2000000000007</v>
+      </c>
+      <c r="Y49">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -2102,8 +5030,57 @@
         <f t="shared" si="1"/>
         <v>0.43941226422377189</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="1">
+        <v>0.86449991101619506</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.90583144676532579</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6996474614652202E-2</v>
+      </c>
+      <c r="Q50">
+        <v>1.4755642840000001</v>
+      </c>
+      <c r="R50">
+        <v>48.725468079999999</v>
+      </c>
+      <c r="S50">
+        <v>39.641193719999997</v>
+      </c>
+      <c r="T50">
+        <v>10.157773915</v>
+      </c>
+      <c r="U50" s="8">
+        <v>5.4343700000000004</v>
+      </c>
+      <c r="V50">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="W50">
+        <v>31</v>
+      </c>
+      <c r="X50">
+        <v>7006.2</v>
+      </c>
+      <c r="Y50">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -2133,8 +5110,57 @@
         <f t="shared" si="1"/>
         <v>0.42372373190874651</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="1">
+        <v>0.87344363766218303</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.91130629878034231</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6065850799967343E-2</v>
+      </c>
+      <c r="Q51">
+        <v>3.2971402360000002</v>
+      </c>
+      <c r="R51">
+        <v>45.456491819999997</v>
+      </c>
+      <c r="S51">
+        <v>43.358311669999999</v>
+      </c>
+      <c r="T51">
+        <v>7.8880562780000005</v>
+      </c>
+      <c r="U51" s="8">
+        <v>11.367115999999999</v>
+      </c>
+      <c r="V51">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="W51">
+        <v>28.2</v>
+      </c>
+      <c r="X51">
+        <v>6521</v>
+      </c>
+      <c r="Y51">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -2164,8 +5190,57 @@
         <f t="shared" si="1"/>
         <v>0.48473068963588567</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="1">
+        <v>0.870214888905113</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.90005618251990815</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23726159181162257</v>
+      </c>
+      <c r="Q52">
+        <v>4.3801678300000004</v>
+      </c>
+      <c r="R52">
+        <v>49.946208470000002</v>
+      </c>
+      <c r="S52">
+        <v>35.765222999999999</v>
+      </c>
+      <c r="T52">
+        <v>9.9084007009999997</v>
+      </c>
+      <c r="U52" s="8">
+        <v>10.203025</v>
+      </c>
+      <c r="V52">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="W52">
+        <v>51.1</v>
+      </c>
+      <c r="X52">
+        <v>5997</v>
+      </c>
+      <c r="Y52">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -2195,8 +5270,57 @@
         <f t="shared" si="1"/>
         <v>0.52480554158120818</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="1">
+        <v>0.88907620849819369</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.92053709760716129</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22375295073720058</v>
+      </c>
+      <c r="Q53">
+        <v>3.4543008890000002</v>
+      </c>
+      <c r="R53">
+        <v>45.994480879999998</v>
+      </c>
+      <c r="S53">
+        <v>42.537406570000002</v>
+      </c>
+      <c r="T53">
+        <v>8.0138116559999997</v>
+      </c>
+      <c r="U53" s="8">
+        <v>4.3065819999999997</v>
+      </c>
+      <c r="V53">
+        <v>0.745</v>
+      </c>
+      <c r="W53">
+        <v>42.3</v>
+      </c>
+      <c r="X53">
+        <v>9481.2999999999993</v>
+      </c>
+      <c r="Y53">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -2226,8 +5350,57 @@
         <f t="shared" si="1"/>
         <v>0.41928417524539141</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="1">
+        <v>0.85754172740150691</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.89152028386058646</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="2"/>
+        <v>1.596839837203734E-2</v>
+      </c>
+      <c r="Q54">
+        <v>2.0897658460000001</v>
+      </c>
+      <c r="R54">
+        <v>48.890184589999997</v>
+      </c>
+      <c r="S54">
+        <v>39.408716849999998</v>
+      </c>
+      <c r="T54">
+        <v>9.6113327060000007</v>
+      </c>
+      <c r="U54" s="8">
+        <v>7.3985070000000004</v>
+      </c>
+      <c r="V54">
+        <v>0.747</v>
+      </c>
+      <c r="W54">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="X54">
+        <v>5668.8</v>
+      </c>
+      <c r="Y54">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -2257,8 +5430,57 @@
         <f t="shared" si="1"/>
         <v>0.55871596331323747</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="1">
+        <v>0.90437860954275895</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.92986650469753562</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23456384468127656</v>
+      </c>
+      <c r="Q55">
+        <v>1.623755684</v>
+      </c>
+      <c r="R55">
+        <v>48.946171810000003</v>
+      </c>
+      <c r="S55">
+        <v>42.077854250000001</v>
+      </c>
+      <c r="T55">
+        <v>7.3522182620000001</v>
+      </c>
+      <c r="U55" s="8">
+        <v>12.436527</v>
+      </c>
+      <c r="V55">
+        <v>0.755</v>
+      </c>
+      <c r="W55">
+        <v>30</v>
+      </c>
+      <c r="X55">
+        <v>6608.4</v>
+      </c>
+      <c r="Y55">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -2288,8 +5510,57 @@
         <f t="shared" si="1"/>
         <v>0.53866349227056287</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="1">
+        <v>0.88525110793527062</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.91600029025469853</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21973452481899414</v>
+      </c>
+      <c r="Q56">
+        <v>1.5592208809999999</v>
+      </c>
+      <c r="R56">
+        <v>43.71229014</v>
+      </c>
+      <c r="S56">
+        <v>45.650249209999998</v>
+      </c>
+      <c r="T56">
+        <v>9.0782397689999996</v>
+      </c>
+      <c r="U56" s="8">
+        <v>8.9097059999999999</v>
+      </c>
+      <c r="V56">
+        <v>0.755</v>
+      </c>
+      <c r="W56">
+        <v>39.9</v>
+      </c>
+      <c r="X56">
+        <v>7981.8</v>
+      </c>
+      <c r="Y56">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -2319,8 +5590,57 @@
         <f t="shared" si="1"/>
         <v>0.67257620257787654</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="1">
+        <v>0.89326446000135939</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.92748362445414845</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44026296166664131</v>
+      </c>
+      <c r="Q57">
+        <v>3.2357870310000001</v>
+      </c>
+      <c r="R57">
+        <v>55.466951510000001</v>
+      </c>
+      <c r="S57">
+        <v>32.882741860000003</v>
+      </c>
+      <c r="T57">
+        <v>8.4145196039999988</v>
+      </c>
+      <c r="U57" s="8">
+        <v>15.248385000000001</v>
+      </c>
+      <c r="V57">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="W57">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="X57">
+        <v>5559.1</v>
+      </c>
+      <c r="Y57">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -2350,8 +5670,57 @@
         <f t="shared" si="1"/>
         <v>0.49711207375319338</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="1">
+        <v>0.9087743205390264</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.93586662281478483</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <f t="shared" si="2"/>
+        <v>8.9553482172609111E-2</v>
+      </c>
+      <c r="Q58">
+        <v>3.259077241</v>
+      </c>
+      <c r="R58">
+        <v>41.798958910000003</v>
+      </c>
+      <c r="S58">
+        <v>42.852985869999998</v>
+      </c>
+      <c r="T58">
+        <v>12.088977981999999</v>
+      </c>
+      <c r="U58" s="8">
+        <v>10.319316000000001</v>
+      </c>
+      <c r="V58">
+        <v>0.751</v>
+      </c>
+      <c r="W58">
+        <v>34.1</v>
+      </c>
+      <c r="X58">
+        <v>6199.9</v>
+      </c>
+      <c r="Y58">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -2381,8 +5750,57 @@
         <f t="shared" si="1"/>
         <v>0.48749853727035142</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="1">
+        <v>0.87539612532261757</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.89476269216286575</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14149471467020319</v>
+      </c>
+      <c r="Q59">
+        <v>1.298642839</v>
+      </c>
+      <c r="R59">
+        <v>40.728320320000002</v>
+      </c>
+      <c r="S59">
+        <v>46.679120429999998</v>
+      </c>
+      <c r="T59">
+        <v>11.29391641</v>
+      </c>
+      <c r="U59" s="7">
+        <v>4.8017640000000004</v>
+      </c>
+      <c r="V59">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="W59">
+        <v>44.2</v>
+      </c>
+      <c r="X59">
+        <v>6675.9</v>
+      </c>
+      <c r="Y59">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -2412,8 +5830,57 @@
         <f t="shared" si="1"/>
         <v>0.50717367922353962</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="1">
+        <v>0.8918653309662693</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.91297092782253064</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" s="5">
+        <v>1</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26064367845527414</v>
+      </c>
+      <c r="Q60">
+        <v>0.81326379999999998</v>
+      </c>
+      <c r="R60">
+        <v>35.766136430000003</v>
+      </c>
+      <c r="S60">
+        <v>48.477569000000003</v>
+      </c>
+      <c r="T60">
+        <v>14.943030767</v>
+      </c>
+      <c r="U60" s="7">
+        <v>10.508645</v>
+      </c>
+      <c r="V60">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="W60">
+        <v>27.4</v>
+      </c>
+      <c r="X60">
+        <v>8752.5</v>
+      </c>
+      <c r="Y60">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -2443,8 +5910,57 @@
         <f t="shared" si="1"/>
         <v>0.60344910256205353</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="1">
+        <v>0.91237702719869018</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.92179284220048618</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27266770022535847</v>
+      </c>
+      <c r="Q61">
+        <v>2.23377984</v>
+      </c>
+      <c r="R61">
+        <v>47.71757839</v>
+      </c>
+      <c r="S61">
+        <v>41.356731269999997</v>
+      </c>
+      <c r="T61">
+        <v>8.6919104989999987</v>
+      </c>
+      <c r="U61" s="7">
+        <v>8.5429949999999995</v>
+      </c>
+      <c r="V61">
+        <v>0.754</v>
+      </c>
+      <c r="W61">
+        <v>44.5</v>
+      </c>
+      <c r="X61">
+        <v>5941</v>
+      </c>
+      <c r="Y61">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -2474,8 +5990,57 @@
         <f t="shared" si="1"/>
         <v>0.53525441034658805</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="1">
+        <v>0.90169353113880735</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.91865391716712341</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1655000283623575</v>
+      </c>
+      <c r="Q62">
+        <v>0.65209749900000002</v>
+      </c>
+      <c r="R62">
+        <v>39.371901630000004</v>
+      </c>
+      <c r="S62">
+        <v>48.623686409999998</v>
+      </c>
+      <c r="T62">
+        <v>11.352314461000001</v>
+      </c>
+      <c r="U62" s="7">
+        <v>11.474292999999999</v>
+      </c>
+      <c r="V62">
+        <v>0.8</v>
+      </c>
+      <c r="W62">
+        <v>24.5</v>
+      </c>
+      <c r="X62">
+        <v>8593.1</v>
+      </c>
+      <c r="Y62">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -2505,8 +6070,57 @@
         <f t="shared" si="1"/>
         <v>0.628725108720531</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="1">
+        <v>0.91406684376351388</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.92937316881937848</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36827649347676811</v>
+      </c>
+      <c r="Q63">
+        <v>2.0368794330000002</v>
+      </c>
+      <c r="R63">
+        <v>40.161702130000002</v>
+      </c>
+      <c r="S63">
+        <v>47.985815600000002</v>
+      </c>
+      <c r="T63">
+        <v>9.8156028370000001</v>
+      </c>
+      <c r="U63" s="7">
+        <v>10.704836999999999</v>
+      </c>
+      <c r="V63">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="W63">
+        <v>31.5</v>
+      </c>
+      <c r="X63">
+        <v>7332.2</v>
+      </c>
+      <c r="Y63">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -2536,8 +6150,57 @@
         <f t="shared" si="1"/>
         <v>0.79052678615758898</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="1">
+        <v>0.9121101660591332</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.9278986976702267</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67752345960975124</v>
+      </c>
+      <c r="Q64">
+        <v>1.4324734450000001</v>
+      </c>
+      <c r="R64">
+        <v>34.088012139999996</v>
+      </c>
+      <c r="S64">
+        <v>51.842185129999997</v>
+      </c>
+      <c r="T64">
+        <v>12.637329287</v>
+      </c>
+      <c r="U64" s="7">
+        <v>11.843988</v>
+      </c>
+      <c r="V64">
+        <v>0.8</v>
+      </c>
+      <c r="W64">
+        <v>25.2</v>
+      </c>
+      <c r="X64">
+        <v>9189.7000000000007</v>
+      </c>
+      <c r="Y64">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -2567,8 +6230,57 @@
         <f t="shared" si="1"/>
         <v>0.5710868883312421</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="1">
+        <v>0.91822322658098232</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.93369482664217462</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2641546424090338</v>
+      </c>
+      <c r="Q65">
+        <v>2.1715452690000001</v>
+      </c>
+      <c r="R65">
+        <v>44.692534600000002</v>
+      </c>
+      <c r="S65">
+        <v>39.877467670000001</v>
+      </c>
+      <c r="T65">
+        <v>13.258452462000001</v>
+      </c>
+      <c r="U65" s="7">
+        <v>14.997187</v>
+      </c>
+      <c r="V65">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="W65">
+        <v>27.4</v>
+      </c>
+      <c r="X65">
+        <v>8803.6</v>
+      </c>
+      <c r="Y65">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -2598,8 +6310,57 @@
         <f t="shared" si="1"/>
         <v>0.5354914964869657</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="1">
+        <v>0.90915994859212523</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.92680839476397026</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20180795412261698</v>
+      </c>
+      <c r="Q66">
+        <v>1.830587024</v>
+      </c>
+      <c r="R66">
+        <v>40.23171988</v>
+      </c>
+      <c r="S66">
+        <v>45.386199789999999</v>
+      </c>
+      <c r="T66">
+        <v>12.551493305000001</v>
+      </c>
+      <c r="U66" s="7">
+        <v>10.141033999999999</v>
+      </c>
+      <c r="V66">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="W66">
+        <v>29.6</v>
+      </c>
+      <c r="X66">
+        <v>8237.2000000000007</v>
+      </c>
+      <c r="Y66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -2622,15 +6383,64 @@
         <v>7.3176228769247412E-2</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:H96" si="2">IF(C67="PC",G67,IF(C67="PN",F67,IF(C67="FA",E67)))</f>
+        <f t="shared" ref="H67:H96" si="3">IF(C67="PC",G67,IF(C67="PN",F67,IF(C67="FA",E67)))</f>
         <v>0.39761458295770075</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I96" si="3">IF(D67="PC",G67,IF(D67="PN",F67,IF(D67="FA",E67)))</f>
+        <f t="shared" ref="I67:I96" si="4">IF(D67="PC",G67,IF(D67="PN",F67,IF(D67="FA",E67)))</f>
         <v>0.45683531066315675</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="1">
+        <v>0.89780943214629449</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.91379190671201505</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" ref="P67:P96" si="5">LARGE(E67:G67,1)-LARGE(E67:G67,2)</f>
+        <v>5.9220727705456E-2</v>
+      </c>
+      <c r="Q67">
+        <v>0.80652404300000002</v>
+      </c>
+      <c r="R67">
+        <v>28.7268057</v>
+      </c>
+      <c r="S67">
+        <v>56.998257619999997</v>
+      </c>
+      <c r="T67">
+        <v>13.468412638</v>
+      </c>
+      <c r="U67" s="7">
+        <v>3.3008999999999999</v>
+      </c>
+      <c r="V67">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="W67">
+        <v>26.2</v>
+      </c>
+      <c r="X67">
+        <v>8992.7000000000007</v>
+      </c>
+      <c r="Y67">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -2653,15 +6463,64 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5119955312224922</v>
-      </c>
-      <c r="I68" s="1">
         <f t="shared" si="3"/>
         <v>0.5119955312224922</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5119955312224922</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.85970294390112456</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.88946329947182945</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>1</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="5"/>
+        <v>0.5119955312224922</v>
+      </c>
+      <c r="Q68">
+        <v>0.52149701900000001</v>
+      </c>
+      <c r="R68">
+        <v>22.331191749999999</v>
+      </c>
+      <c r="S68">
+        <v>48.222795980000001</v>
+      </c>
+      <c r="T68">
+        <v>28.924515249999999</v>
+      </c>
+      <c r="U68" s="6">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="W68">
+        <v>16.7</v>
+      </c>
+      <c r="X68">
+        <v>11828.3</v>
+      </c>
+      <c r="Y68">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -2684,15 +6543,64 @@
         <v>5.2203041100015057E-2</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43136197119486125</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44841170271490943</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="1">
+        <v>0.88844100546826033</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.9114041926541927</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5">
+        <v>1</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7049731520048184E-2</v>
+      </c>
+      <c r="Q69">
+        <v>1.365091453</v>
+      </c>
+      <c r="R69">
+        <v>41.027485159999998</v>
+      </c>
+      <c r="S69">
+        <v>45.813766549999997</v>
+      </c>
+      <c r="T69">
+        <v>11.793656838</v>
+      </c>
+      <c r="U69" s="7">
+        <v>4.9426769999999998</v>
+      </c>
+      <c r="V69">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="W69">
+        <v>29.5</v>
+      </c>
+      <c r="X69">
+        <v>7416.4</v>
+      </c>
+      <c r="Y69">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -2715,15 +6623,64 @@
         <v>8.6548269819266083E-2</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42110218920827558</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42730102267674525</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="1">
+        <v>0.8828714524207012</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.90347628185104201</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="5"/>
+        <v>6.1988334684696667E-3</v>
+      </c>
+      <c r="Q70">
+        <v>0.95240921000000001</v>
+      </c>
+      <c r="R70">
+        <v>33.720033229999999</v>
+      </c>
+      <c r="S70">
+        <v>53.153928319999999</v>
+      </c>
+      <c r="T70">
+        <v>12.173629243000001</v>
+      </c>
+      <c r="U70" s="7">
+        <v>11.535704000000001</v>
+      </c>
+      <c r="V70">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="W70">
+        <v>28.5</v>
+      </c>
+      <c r="X70">
+        <v>7802.9</v>
+      </c>
+      <c r="Y70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -2746,15 +6703,64 @@
         <v>0.56131767775603392</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56131767775603392</v>
-      </c>
-      <c r="I71" s="1">
         <f t="shared" si="3"/>
         <v>0.56131767775603392</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56131767775603392</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.87416622860814208</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.90359216935181719</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <f t="shared" si="5"/>
+        <v>0.37003968253968256</v>
+      </c>
+      <c r="Q71">
+        <v>2.0671225340000001</v>
+      </c>
+      <c r="R71">
+        <v>46.889884459999998</v>
+      </c>
+      <c r="S71">
+        <v>40.452723409999997</v>
+      </c>
+      <c r="T71">
+        <v>8.10253786</v>
+      </c>
+      <c r="U71" s="7">
+        <v>8.6455040000000007</v>
+      </c>
+      <c r="V71">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="W71">
+        <v>42.4</v>
+      </c>
+      <c r="X71">
+        <v>6289.4</v>
+      </c>
+      <c r="Y71">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -2777,15 +6783,64 @@
         <v>3.3240179485160982E-2</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="2"/>
-        <v>0.45717547036133199</v>
-      </c>
-      <c r="I72" s="1">
         <f t="shared" si="3"/>
         <v>0.45717547036133199</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45717547036133199</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.89646590343454458</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.91538257173219983</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5">
+        <f t="shared" si="5"/>
+        <v>3.7943792804849275E-2</v>
+      </c>
+      <c r="Q72">
+        <v>40.103365799999999</v>
+      </c>
+      <c r="R72">
+        <v>48.436699130000001</v>
+      </c>
+      <c r="S72">
+        <v>1.00803007</v>
+      </c>
+      <c r="T72">
+        <v>10.175147751999999</v>
+      </c>
+      <c r="U72" s="7">
+        <v>7.9615460000000002</v>
+      </c>
+      <c r="V72">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="W72">
+        <v>34.4</v>
+      </c>
+      <c r="X72">
+        <v>7666.2</v>
+      </c>
+      <c r="Y72">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -2808,15 +6863,64 @@
         <v>0.43734624325727312</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43734624325727312</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45430744577606247</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="1">
+        <v>0.88217842344168751</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.89817757055603398</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6961202518789353E-2</v>
+      </c>
+      <c r="Q73">
+        <v>36.584166969999998</v>
+      </c>
+      <c r="R73">
+        <v>47.804657710000001</v>
+      </c>
+      <c r="S73">
+        <v>1.683206462</v>
+      </c>
+      <c r="T73">
+        <v>13.508185624999999</v>
+      </c>
+      <c r="U73" s="7">
+        <v>7.3592149999999998</v>
+      </c>
+      <c r="V73">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="W73">
+        <v>32.6</v>
+      </c>
+      <c r="X73">
+        <v>7210.1</v>
+      </c>
+      <c r="Y73">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -2839,15 +6943,64 @@
         <v>1.8831754623364907E-2</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56964648173207033</v>
-      </c>
-      <c r="I74" s="1">
         <f t="shared" si="3"/>
         <v>0.56964648173207033</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56964648173207033</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.91392714349178139</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.93140473428282278</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" si="5"/>
+        <v>0.26350360847992782</v>
+      </c>
+      <c r="Q74">
+        <v>43.630863220000002</v>
+      </c>
+      <c r="R74">
+        <v>46.641407469999997</v>
+      </c>
+      <c r="S74">
+        <v>1.1396011399999999</v>
+      </c>
+      <c r="T74">
+        <v>8.7121670959999999</v>
+      </c>
+      <c r="U74" s="7">
+        <v>14.342577</v>
+      </c>
+      <c r="V74">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="W74">
+        <v>24.5</v>
+      </c>
+      <c r="X74">
+        <v>8800.1</v>
+      </c>
+      <c r="Y74">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -2870,15 +7023,64 @@
         <v>8.4424778761061942E-2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="2"/>
-        <v>0.62831858407079644</v>
-      </c>
-      <c r="I75" s="1">
         <f t="shared" si="3"/>
         <v>0.62831858407079644</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="1">
+        <f t="shared" si="4"/>
+        <v>0.62831858407079644</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.90080926468536349</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.92028042483522943</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0</v>
+      </c>
+      <c r="P75" s="5">
+        <f t="shared" si="5"/>
+        <v>0.40156074014481091</v>
+      </c>
+      <c r="Q75">
+        <v>39.193860209999997</v>
+      </c>
+      <c r="R75">
+        <v>47.903606930000002</v>
+      </c>
+      <c r="S75">
+        <v>1.372859179</v>
+      </c>
+      <c r="T75">
+        <v>12.333409038000001</v>
+      </c>
+      <c r="U75" s="7">
+        <v>9.2382019999999994</v>
+      </c>
+      <c r="V75">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="W75">
+        <v>32.9</v>
+      </c>
+      <c r="X75">
+        <v>8400.7999999999993</v>
+      </c>
+      <c r="Y75">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -2901,15 +7103,64 @@
         <v>6.5054511193862449E-2</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="2"/>
-        <v>0.58315761137780964</v>
-      </c>
-      <c r="I76" s="1">
         <f t="shared" si="3"/>
         <v>0.58315761137780964</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="1">
+        <f t="shared" si="4"/>
+        <v>0.58315761137780964</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.90096649820246966</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.92261066791803537</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0</v>
+      </c>
+      <c r="P76" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28440037686751307</v>
+      </c>
+      <c r="Q76">
+        <v>47.457627119999998</v>
+      </c>
+      <c r="R76">
+        <v>39.737144499999999</v>
+      </c>
+      <c r="S76">
+        <v>1.129345016</v>
+      </c>
+      <c r="T76">
+        <v>11.225488529</v>
+      </c>
+      <c r="U76" s="7">
+        <v>12.613242</v>
+      </c>
+      <c r="V76">
+        <v>0.76</v>
+      </c>
+      <c r="W76">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="X76">
+        <v>6587.9</v>
+      </c>
+      <c r="Y76">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -2932,15 +7183,64 @@
         <v>1.9119788576667924E-2</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="2"/>
-        <v>0.63885443072110459</v>
-      </c>
-      <c r="I77" s="1">
         <f t="shared" si="3"/>
         <v>0.63885443072110459</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63885443072110459</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.91228070175438591</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.93028706746568723</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0</v>
+      </c>
+      <c r="P77" s="5">
+        <f t="shared" si="5"/>
+        <v>0.3455045574672348</v>
+      </c>
+      <c r="Q77">
+        <v>42.637383900000003</v>
+      </c>
+      <c r="R77">
+        <v>44.830366359999999</v>
+      </c>
+      <c r="S77">
+        <v>0.80301857600000004</v>
+      </c>
+      <c r="T77">
+        <v>11.128054959999998</v>
+      </c>
+      <c r="U77" s="7">
+        <v>6.9192590000000003</v>
+      </c>
+      <c r="V77">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="W77">
+        <v>29.4</v>
+      </c>
+      <c r="X77">
+        <v>7408.3</v>
+      </c>
+      <c r="Y77">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -2963,15 +7263,64 @@
         <v>5.8466365230229765E-2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="2"/>
-        <v>0.64420042447171721</v>
-      </c>
-      <c r="I78" s="1">
         <f t="shared" si="3"/>
         <v>0.64420042447171721</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64420042447171721</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.8595881718383146</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.89736014485847704</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" s="5">
+        <v>1</v>
+      </c>
+      <c r="P78" s="5">
+        <f t="shared" si="5"/>
+        <v>0.44294546461197742</v>
+      </c>
+      <c r="Q78">
+        <v>1.829671056</v>
+      </c>
+      <c r="R78">
+        <v>41.516579329999999</v>
+      </c>
+      <c r="S78">
+        <v>46.100664930000001</v>
+      </c>
+      <c r="T78">
+        <v>10.553084680000001</v>
+      </c>
+      <c r="U78" s="6">
+        <v>7.4685949999999997</v>
+      </c>
+      <c r="V78">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="W78">
+        <v>42.4</v>
+      </c>
+      <c r="X78">
+        <v>6154.8</v>
+      </c>
+      <c r="Y78">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -2994,15 +7343,64 @@
         <v>4.2392676226863352E-2</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="2"/>
-        <v>0.51456016813153549</v>
-      </c>
-      <c r="I79" s="1">
         <f t="shared" si="3"/>
         <v>0.51456016813153549</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="1">
+        <f t="shared" si="4"/>
+        <v>0.51456016813153549</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.85715754279644218</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.90431493072718105</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0</v>
+      </c>
+      <c r="P79" s="5">
+        <f t="shared" si="5"/>
+        <v>0.25728579505542515</v>
+      </c>
+      <c r="Q79">
+        <v>0.66116050000000004</v>
+      </c>
+      <c r="R79">
+        <v>33.240921530000001</v>
+      </c>
+      <c r="S79">
+        <v>49.73340726</v>
+      </c>
+      <c r="T79">
+        <v>16.364510713000001</v>
+      </c>
+      <c r="U79" s="6">
+        <v>9.8544319999999992</v>
+      </c>
+      <c r="V79">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="W79">
+        <v>26.6</v>
+      </c>
+      <c r="X79">
+        <v>8888.2999999999993</v>
+      </c>
+      <c r="Y79">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -3025,15 +7423,64 @@
         <v>9.956174507917602E-3</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="2"/>
-        <v>0.81671171377525309</v>
-      </c>
-      <c r="I80" s="1">
         <f t="shared" si="3"/>
         <v>0.81671171377525309</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81671171377525309</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.8943012823139006</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.9212844713370576</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" s="5">
+        <v>1</v>
+      </c>
+      <c r="P80" s="5">
+        <f t="shared" si="5"/>
+        <v>0.69274817902789865</v>
+      </c>
+      <c r="Q80">
+        <v>1.745268796</v>
+      </c>
+      <c r="R80">
+        <v>42.885014460000001</v>
+      </c>
+      <c r="S80">
+        <v>45.63416754</v>
+      </c>
+      <c r="T80">
+        <v>9.7355492099999985</v>
+      </c>
+      <c r="U80" s="6">
+        <v>6.9966879999999998</v>
+      </c>
+      <c r="V80">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="W80">
+        <v>43.8</v>
+      </c>
+      <c r="X80">
+        <v>5976.5</v>
+      </c>
+      <c r="Y80">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -3056,15 +7503,64 @@
         <v>6.5401617250673852E-2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46766576819407008</v>
-      </c>
-      <c r="I81" s="1">
         <f t="shared" si="3"/>
         <v>0.46766576819407008</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46766576819407008</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.87230080505605301</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.91552840700206439</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" s="5">
+        <v>1</v>
+      </c>
+      <c r="P81" s="5">
+        <f t="shared" si="5"/>
+        <v>0.14582210242587601</v>
+      </c>
+      <c r="Q81">
+        <v>0.77438136800000001</v>
+      </c>
+      <c r="R81">
+        <v>40.002328970000001</v>
+      </c>
+      <c r="S81">
+        <v>48.531004369999998</v>
+      </c>
+      <c r="T81">
+        <v>10.692285298000002</v>
+      </c>
+      <c r="U81" s="6">
+        <v>10.273946</v>
+      </c>
+      <c r="V81">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="W81">
+        <v>21.6</v>
+      </c>
+      <c r="X81">
+        <v>8244.7999999999993</v>
+      </c>
+      <c r="Y81">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -3087,15 +7583,64 @@
         <v>0.10959637653673665</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49139873714272964</v>
-      </c>
-      <c r="I82" s="1">
         <f t="shared" si="3"/>
         <v>0.49139873714272964</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="1">
+        <f t="shared" si="4"/>
+        <v>0.49139873714272964</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.88990151695655628</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.92595825728116821</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1</v>
+      </c>
+      <c r="P82" s="5">
+        <f t="shared" si="5"/>
+        <v>0.27604364220531469</v>
+      </c>
+      <c r="Q82">
+        <v>0.86034807499999999</v>
+      </c>
+      <c r="R82">
+        <v>40.818736469999997</v>
+      </c>
+      <c r="S82">
+        <v>47.482216659999999</v>
+      </c>
+      <c r="T82">
+        <v>10.838698793999999</v>
+      </c>
+      <c r="U82" s="6">
+        <v>8.4051720000000003</v>
+      </c>
+      <c r="V82">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="W82">
+        <v>29.6</v>
+      </c>
+      <c r="X82">
+        <v>7015.1</v>
+      </c>
+      <c r="Y82">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -3118,15 +7663,64 @@
         <v>0.18130085359157391</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50082364099236265</v>
-      </c>
-      <c r="I83" s="1">
         <f t="shared" si="3"/>
         <v>0.50082364099236265</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50082364099236265</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.88885437927056532</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.9261398018637943</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1</v>
+      </c>
+      <c r="P83" s="5">
+        <f t="shared" si="5"/>
+        <v>0.29186841711176564</v>
+      </c>
+      <c r="Q83">
+        <v>1.317309914</v>
+      </c>
+      <c r="R83">
+        <v>30.852784840000002</v>
+      </c>
+      <c r="S83">
+        <v>52.940836609999998</v>
+      </c>
+      <c r="T83">
+        <v>14.889068639000001</v>
+      </c>
+      <c r="U83" s="6">
+        <v>10.075908999999999</v>
+      </c>
+      <c r="V83">
+        <v>0.8</v>
+      </c>
+      <c r="W83">
+        <v>27.7</v>
+      </c>
+      <c r="X83">
+        <v>8570.4</v>
+      </c>
+      <c r="Y83">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -3149,15 +7743,64 @@
         <v>8.1367170082006945E-2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="2"/>
-        <v>0.48696225354297124</v>
-      </c>
-      <c r="I84" s="1">
         <f t="shared" si="3"/>
         <v>0.48696225354297124</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48696225354297124</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.89130998254738991</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.92431019974312412</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" s="5">
+        <v>1</v>
+      </c>
+      <c r="P84" s="5">
+        <f t="shared" si="5"/>
+        <v>0.16979120218685173</v>
+      </c>
+      <c r="Q84">
+        <v>1.3430368699999999</v>
+      </c>
+      <c r="R84">
+        <v>41.243858760000002</v>
+      </c>
+      <c r="S84">
+        <v>44.129666190000002</v>
+      </c>
+      <c r="T84">
+        <v>13.283438175000001</v>
+      </c>
+      <c r="U84" s="6">
+        <v>18.070150000000002</v>
+      </c>
+      <c r="V84">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="W84">
+        <v>24.6</v>
+      </c>
+      <c r="X84">
+        <v>8024.6</v>
+      </c>
+      <c r="Y84">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -3180,15 +7823,64 @@
         <v>0.10448780058134413</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53796353386770013</v>
-      </c>
-      <c r="I85" s="1">
         <f t="shared" si="3"/>
         <v>0.53796353386770013</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53796353386770013</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.88113624898133414</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.9260640586897273</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1</v>
+      </c>
+      <c r="P85" s="5">
+        <f t="shared" si="5"/>
+        <v>0.33277547784726502</v>
+      </c>
+      <c r="Q85">
+        <v>1.411572254</v>
+      </c>
+      <c r="R85">
+        <v>40.093928920000003</v>
+      </c>
+      <c r="S85">
+        <v>45.919632729999996</v>
+      </c>
+      <c r="T85">
+        <v>12.574866099000001</v>
+      </c>
+      <c r="U85" s="6">
+        <v>15.223293</v>
+      </c>
+      <c r="V85">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="W85">
+        <v>29.7</v>
+      </c>
+      <c r="X85">
+        <v>7731.7</v>
+      </c>
+      <c r="Y85">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -3211,15 +7903,64 @@
         <v>4.5628602523277842E-2</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5571929541698577</v>
-      </c>
-      <c r="I86" s="1">
         <f t="shared" si="3"/>
         <v>0.5571929541698577</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5571929541698577</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.8788230876591403</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.9111265135226887</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" s="5">
+        <v>1</v>
+      </c>
+      <c r="P86" s="5">
+        <f t="shared" si="5"/>
+        <v>0.30179370389777904</v>
+      </c>
+      <c r="Q86">
+        <v>0.51814314400000006</v>
+      </c>
+      <c r="R86">
+        <v>27.15330367</v>
+      </c>
+      <c r="S86">
+        <v>58.232944789999998</v>
+      </c>
+      <c r="T86">
+        <v>14.095608391000001</v>
+      </c>
+      <c r="U86" s="6">
+        <v>4.0133359999999998</v>
+      </c>
+      <c r="V86">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="W86">
+        <v>25</v>
+      </c>
+      <c r="X86">
+        <v>8994</v>
+      </c>
+      <c r="Y86">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -3242,15 +7983,64 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="2"/>
-        <v>0.52055276994780741</v>
-      </c>
-      <c r="I87" s="1">
         <f t="shared" si="3"/>
         <v>0.52055276994780741</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52055276994780741</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.84238891956119921</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.88535057432787856</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52055276994780741</v>
+      </c>
+      <c r="Q87">
+        <v>0.53672551000000002</v>
+      </c>
+      <c r="R87">
+        <v>19.827017949999998</v>
+      </c>
+      <c r="S87">
+        <v>48.584393210000002</v>
+      </c>
+      <c r="T87">
+        <v>31.051863322999999</v>
+      </c>
+      <c r="U87" s="6">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="W87">
+        <v>17.5</v>
+      </c>
+      <c r="X87">
+        <v>11891.4</v>
+      </c>
+      <c r="Y87">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -3273,15 +8063,64 @@
         <v>3.861668693631317E-2</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39990607728153937</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48465326863101615</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="1">
+        <v>0.87065052157047751</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.90293252984317296</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <v>1</v>
+      </c>
+      <c r="P88" s="5">
+        <f t="shared" si="5"/>
+        <v>8.474719134947678E-2</v>
+      </c>
+      <c r="Q88">
+        <v>1.3941412200000001</v>
+      </c>
+      <c r="R88">
+        <v>38.712818200000001</v>
+      </c>
+      <c r="S88">
+        <v>47.115764519999999</v>
+      </c>
+      <c r="T88">
+        <v>12.777276062000002</v>
+      </c>
+      <c r="U88" s="6">
+        <v>5.4401279999999996</v>
+      </c>
+      <c r="V88">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="W88">
+        <v>27.3</v>
+      </c>
+      <c r="X88">
+        <v>7226</v>
+      </c>
+      <c r="Y88">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -3304,15 +8143,64 @@
         <v>6.1922274127820295E-2</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40453235264884208</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44868800318059837</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="1">
+        <v>0.86453276047261007</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.90065699072483685</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="5">
+        <v>1</v>
+      </c>
+      <c r="P89" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4155650531756296E-2</v>
+      </c>
+      <c r="Q89">
+        <v>1.6017441859999999</v>
+      </c>
+      <c r="R89">
+        <v>34.482558140000002</v>
+      </c>
+      <c r="S89">
+        <v>52.735465120000001</v>
+      </c>
+      <c r="T89">
+        <v>11.180232558</v>
+      </c>
+      <c r="U89" s="6">
+        <v>11.988904</v>
+      </c>
+      <c r="V89">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="W89">
+        <v>29.9</v>
+      </c>
+      <c r="X89">
+        <v>7189.5</v>
+      </c>
+      <c r="Y89">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -3335,15 +8223,64 @@
         <v>0.56098373766995469</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56098373766995469</v>
-      </c>
-      <c r="I90" s="1">
         <f t="shared" si="3"/>
         <v>0.56098373766995469</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56098373766995469</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.8426846391463072</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.91354053881918351</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" s="5">
+        <f t="shared" si="5"/>
+        <v>0.32568648360437213</v>
+      </c>
+      <c r="Q90">
+        <v>1.7819706500000001</v>
+      </c>
+      <c r="R90">
+        <v>43.127335700000003</v>
+      </c>
+      <c r="S90">
+        <v>44.570534440000003</v>
+      </c>
+      <c r="T90">
+        <v>10.520159207999999</v>
+      </c>
+      <c r="U90" s="6">
+        <v>8.2052370000000003</v>
+      </c>
+      <c r="V90">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="W90">
+        <v>42.8</v>
+      </c>
+      <c r="X90">
+        <v>5804.6</v>
+      </c>
+      <c r="Y90">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -3366,15 +8303,64 @@
         <v>2.8930041898681369E-2</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41486949739720314</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43837629006221318</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="1">
+        <v>0.87711790254068756</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.88993226773900058</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="5">
+        <v>1</v>
+      </c>
+      <c r="P91" s="5">
+        <f t="shared" si="5"/>
+        <v>2.3506792665010046E-2</v>
+      </c>
+      <c r="Q91">
+        <v>1.7307773689999999</v>
+      </c>
+      <c r="R91">
+        <v>35.707333589999998</v>
+      </c>
+      <c r="S91">
+        <v>50.050780750000001</v>
+      </c>
+      <c r="T91">
+        <v>12.511108289999999</v>
+      </c>
+      <c r="U91" s="6">
+        <v>6.1321070000000004</v>
+      </c>
+      <c r="V91">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="W91">
+        <v>32.5</v>
+      </c>
+      <c r="X91">
+        <v>7719.6</v>
+      </c>
+      <c r="Y91">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -3397,15 +8383,64 @@
         <v>0.19629560989436273</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="2"/>
-        <v>0.40503003412225141</v>
-      </c>
-      <c r="I92" s="1">
         <f t="shared" si="3"/>
         <v>0.40503003412225141</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40503003412225141</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.88337715116671001</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.90903752478869448</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" s="5">
+        <f t="shared" si="5"/>
+        <v>5.172846101014944E-2</v>
+      </c>
+      <c r="Q92">
+        <v>2.0549413140000001</v>
+      </c>
+      <c r="R92">
+        <v>37.051978669999997</v>
+      </c>
+      <c r="S92">
+        <v>45.090203099999997</v>
+      </c>
+      <c r="T92">
+        <v>15.802876916999999</v>
+      </c>
+      <c r="U92" s="6">
+        <v>7.1683909999999997</v>
+      </c>
+      <c r="V92">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="W92">
+        <v>35.5</v>
+      </c>
+      <c r="X92">
+        <v>7054.4</v>
+      </c>
+      <c r="Y92">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -3428,15 +8463,64 @@
         <v>2.9205451684314404E-2</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="2"/>
-        <v>0.48238337823060307</v>
-      </c>
-      <c r="I93" s="1">
         <f t="shared" si="3"/>
         <v>0.48238337823060307</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48238337823060307</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.88688350088704904</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.92778314661703476</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" s="5">
+        <v>1</v>
+      </c>
+      <c r="P93" s="5">
+        <f t="shared" si="5"/>
+        <v>0.16236364121302643</v>
+      </c>
+      <c r="Q93">
+        <v>1.0016336809999999</v>
+      </c>
+      <c r="R93">
+        <v>41.982913310000001</v>
+      </c>
+      <c r="S93">
+        <v>48.300704359999997</v>
+      </c>
+      <c r="T93">
+        <v>8.7147486549999993</v>
+      </c>
+      <c r="U93" s="6">
+        <v>13.916064</v>
+      </c>
+      <c r="V93">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="W93">
+        <v>27.8</v>
+      </c>
+      <c r="X93">
+        <v>7753.5</v>
+      </c>
+      <c r="Y93">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -3459,15 +8543,64 @@
         <v>9.714091007651085E-2</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="2"/>
-        <v>0.54085741721649161</v>
-      </c>
-      <c r="I94" s="1">
         <f t="shared" si="3"/>
         <v>0.54085741721649161</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="1">
+        <f t="shared" si="4"/>
+        <v>0.54085741721649161</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.86979833223316405</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.91075462255346196</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <v>1</v>
+      </c>
+      <c r="P94" s="5">
+        <f t="shared" si="5"/>
+        <v>0.3044791376266146</v>
+      </c>
+      <c r="Q94">
+        <v>1.0990104919999999</v>
+      </c>
+      <c r="R94">
+        <v>36.663547489999999</v>
+      </c>
+      <c r="S94">
+        <v>51.96408306</v>
+      </c>
+      <c r="T94">
+        <v>10.273358950999999</v>
+      </c>
+      <c r="U94" s="6">
+        <v>9.2054550000000006</v>
+      </c>
+      <c r="V94">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="W94">
+        <v>38.9</v>
+      </c>
+      <c r="X94">
+        <v>7778.1</v>
+      </c>
+      <c r="Y94">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -3490,15 +8623,64 @@
         <v>7.529124119085287E-2</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="2"/>
-        <v>0.57107723284912992</v>
-      </c>
-      <c r="I95" s="1">
         <f t="shared" si="3"/>
         <v>0.57107723284912992</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="1">
+        <f t="shared" si="4"/>
+        <v>0.57107723284912992</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.88041633955479015</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.91694385774090326</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" s="5">
+        <v>1</v>
+      </c>
+      <c r="P95" s="5">
+        <f t="shared" si="5"/>
+        <v>0.39814468574715955</v>
+      </c>
+      <c r="Q95">
+        <v>2.5035665819999999</v>
+      </c>
+      <c r="R95">
+        <v>47.09280072</v>
+      </c>
+      <c r="S95">
+        <v>40.098820420000003</v>
+      </c>
+      <c r="T95">
+        <v>10.304812277</v>
+      </c>
+      <c r="U95" s="6">
+        <v>13.137703999999999</v>
+      </c>
+      <c r="V95">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="W95">
+        <v>34.4</v>
+      </c>
+      <c r="X95">
+        <v>6222.2</v>
+      </c>
+      <c r="Y95">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -3521,16 +8703,246 @@
         <v>2.6347052456506245E-2</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="2"/>
-        <v>0.69954328255761766</v>
-      </c>
-      <c r="I96" s="1">
         <f t="shared" si="3"/>
         <v>0.69954328255761766</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="4"/>
+        <v>0.69954328255761766</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.88355764969326589</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.91807087538136589</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" s="5">
+        <v>1</v>
+      </c>
+      <c r="P96" s="5">
+        <f t="shared" si="5"/>
+        <v>0.50904194936508351</v>
+      </c>
+      <c r="Q96">
+        <v>1.1683633520000001</v>
+      </c>
+      <c r="R96">
+        <v>37.69772905</v>
+      </c>
+      <c r="S96">
+        <v>49.616288179999998</v>
+      </c>
+      <c r="T96">
+        <v>11.517619420999999</v>
+      </c>
+      <c r="U96" s="6">
+        <v>6.5416299999999996</v>
+      </c>
+      <c r="V96">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="W96">
+        <v>31.3</v>
+      </c>
+      <c r="X96">
+        <v>6569.9</v>
+      </c>
+      <c r="Y96">
+        <v>26.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007076A1-06EF-B14E-ACAE-3471EBB06777}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="12">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="12">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="12">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="12">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/ResultadosDepartamentales.xlsx
+++ b/Data/ResultadosDepartamentales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/Departamentales-vs-COVID/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B96379-5BC2-4C4D-AAB5-03EAB582FC15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4424C6-05F1-004F-BCAF-6DE8CDEDB96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25040" windowHeight="11880" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
+    <workbookView xWindow="-580" yWindow="500" windowWidth="25040" windowHeight="14260" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultadosDepartamentales" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00BBD228-957D-CC4B-A74E-ED6ACCD3E715}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00BBD228-957D-CC4B-A74E-ED6ACCD3E715}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1000F6B6-4E0F-9A42-8770-464258DEABF2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1000F6B6-4E0F-9A42-8770-464258DEABF2}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8A9E7C93-B929-2E4C-B0A9-6F387A2E0529}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8A9E7C93-B929-2E4C-B0A9-6F387A2E0529}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{18E76EED-5B11-8A4A-89D9-EE4555584897}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{18E76EED-5B11-8A4A-89D9-EE4555584897}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{FB70BB77-452E-E240-901F-488C5BA744E8}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{FB70BB77-452E-E240-901F-488C5BA744E8}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{83C062E5-BF08-B143-8F36-E8589B091D26}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{83C062E5-BF08-B143-8F36-E8589B091D26}">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{80C4A0E6-7270-B541-86F9-AB11850F142D}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{80C4A0E6-7270-B541-86F9-AB11850F142D}">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F5FB3BB0-6D4F-9D45-9068-70410B46A047}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F5FB3BB0-6D4F-9D45-9068-70410B46A047}">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="69">
   <si>
     <t>Votos_Pgob</t>
   </si>
@@ -629,6 +629,9 @@
   <si>
     <t>Turnout_Nac</t>
   </si>
+  <si>
+    <t>N_Candidatos</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +642,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1069,21 +1072,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB94FE-8E7B-274E-A819-0B36A18610BC}">
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="11" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1106,61 +1109,64 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1182,39 +1188,39 @@
       <c r="G2">
         <v>0.57139246904220364</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
         <f>IF(C2="PC",G2,IF(C2="PN",F2,IF(C2="FA",E2)))</f>
         <v>0.57139246904220364</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <f>IF(D2="PC",G2,IF(D2="PN",F2,IF(D2="FA",E2)))</f>
         <v>0.57139246904220364</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.88197927114677366</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.91958801498127341</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
         <f>LARGE(E2:G2,1)-LARGE(E2:G2,2)</f>
         <v>0.31591694044309659</v>
       </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
       <c r="R2" t="s">
         <v>55</v>
       </c>
@@ -1239,8 +1245,11 @@
       <c r="Y2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1262,39 +1271,39 @@
       <c r="G3">
         <v>0.43929143344058058</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="0">IF(C3="PC",G3,IF(C3="PN",F3,IF(C3="FA",E3)))</f>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I66" si="0">IF(C3="PC",G3,IF(C3="PN",F3,IF(C3="FA",E3)))</f>
         <v>0.43929143344058058</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="1">IF(D3="PC",G3,IF(D3="PN",F3,IF(D3="FA",E3)))</f>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J66" si="1">IF(D3="PC",G3,IF(D3="PN",F3,IF(D3="FA",E3)))</f>
         <v>0.43929143344058058</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.89995835178855932</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.92990184199781578</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
-        <v>1</v>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P66" si="2">LARGE(E3:G3,1)-LARGE(E3:G3,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q66" si="2">LARGE(E3:G3,1)-LARGE(E3:G3,2)</f>
         <v>5.2940485110259006E-2</v>
       </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
       <c r="R3" t="s">
         <v>55</v>
       </c>
@@ -1319,8 +1328,11 @@
       <c r="Y3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1342,39 +1354,39 @@
       <c r="G4">
         <v>0.1200870322019147</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>0.66384682332463008</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>0.66384682332463008</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.9056086257448217</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.92649802371541501</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>0.47893820713664048</v>
       </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
       <c r="R4" t="s">
         <v>55</v>
       </c>
@@ -1399,8 +1411,11 @@
       <c r="Y4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1422,39 +1437,39 @@
       <c r="G5">
         <v>0.36588134094764763</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>0.41197342954768107</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>0.41197342954768107</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.89468227246005028</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.92700142671715602</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>4.6092088600033443E-2</v>
       </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
       <c r="R5" t="s">
         <v>55</v>
       </c>
@@ -1479,8 +1494,11 @@
       <c r="Y5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1502,39 +1520,39 @@
       <c r="G6">
         <v>0.32409459494694026</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>0.51401454905744015</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>0.51401454905744015</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.89779723308129877</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.92969300926143572</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" si="2"/>
         <v>0.18991995411049989</v>
       </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
       <c r="R6" t="s">
         <v>55</v>
       </c>
@@ -1559,8 +1577,11 @@
       <c r="Y6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1582,39 +1603,39 @@
       <c r="G7">
         <v>0.10610844947735192</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>0.79099520905923348</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>0.79099520905923348</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.90438207779419011</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.93416167516459581</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>0.68488675958188161</v>
       </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
       <c r="R7" t="s">
         <v>55</v>
       </c>
@@ -1639,8 +1660,11 @@
       <c r="Y7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1662,39 +1686,39 @@
       <c r="G8">
         <v>0.36271039065896526</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>0.36271039065896526</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>0.38426184709024286</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.90851468015874504</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.93170105525456359</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
         <v>2.1551456431277594E-2</v>
       </c>
-      <c r="Q8" t="s">
-        <v>55</v>
-      </c>
       <c r="R8" t="s">
         <v>55</v>
       </c>
@@ -1719,8 +1743,11 @@
       <c r="Y8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1742,39 +1769,39 @@
       <c r="G9">
         <v>0.32224398059548709</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>0.51631136232142061</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>0.51631136232142061</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.90868281635459214</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.93727551289595978</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>0.19406738172593352</v>
       </c>
-      <c r="Q9" t="s">
-        <v>55</v>
-      </c>
       <c r="R9" t="s">
         <v>55</v>
       </c>
@@ -1799,8 +1826,11 @@
       <c r="Y9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1822,39 +1852,39 @@
       <c r="G10">
         <v>0.25477405500265549</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>0.37317292816403813</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>0.37317292816403813</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.90861788617886174</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.93068252512152172</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
         <v>3.7014801302329869E-2</v>
       </c>
-      <c r="Q10" t="s">
-        <v>55</v>
-      </c>
       <c r="R10" t="s">
         <v>55</v>
       </c>
@@ -1879,8 +1909,11 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1902,39 +1935,39 @@
       <c r="G11">
         <v>0.27183789846092477</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>0.56358535540638188</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>0.56358535540638188</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.86843256034074778</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.90803134870019442</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
         <v>0.29174745694545712</v>
       </c>
-      <c r="Q11" t="s">
-        <v>55</v>
-      </c>
       <c r="R11" t="s">
         <v>55</v>
       </c>
@@ -1959,8 +1992,11 @@
       <c r="Y11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1982,39 +2018,39 @@
       <c r="G12">
         <v>0.18227681509102872</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>0.42037727571835931</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>0.42037727571835931</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.87656219957700443</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.91295373064062479</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <f t="shared" si="2"/>
         <v>5.6495393726694487E-2</v>
       </c>
-      <c r="Q12" t="s">
-        <v>55</v>
-      </c>
       <c r="R12" t="s">
         <v>55</v>
       </c>
@@ -2039,8 +2075,11 @@
       <c r="Y12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -2062,39 +2101,39 @@
       <c r="G13">
         <v>0.399994057876285</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>0.399994057876285</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>0.399994057876285</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.88399212081418255</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.91875049510179296</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
         <f t="shared" si="2"/>
         <v>7.0384455404361557E-2</v>
       </c>
-      <c r="Q13" t="s">
-        <v>55</v>
-      </c>
       <c r="R13" t="s">
         <v>55</v>
       </c>
@@ -2119,8 +2158,11 @@
       <c r="Y13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -2142,39 +2184,39 @@
       <c r="G14">
         <v>0.45702612429917688</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>0.45702612429917688</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>0.45702612429917688</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.8749152011689193</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>0.90774016564505755</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="2"/>
         <v>6.4624835977573625E-2</v>
       </c>
-      <c r="Q14" t="s">
-        <v>55</v>
-      </c>
       <c r="R14" t="s">
         <v>55</v>
       </c>
@@ -2199,8 +2241,11 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -2222,39 +2267,39 @@
       <c r="G15">
         <v>0.36486702021611706</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>0.44140515969536265</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>0.44140515969536265</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.90080997108528937</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.92747256720357218</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="2"/>
         <v>7.6538139479245593E-2</v>
       </c>
-      <c r="Q15" t="s">
-        <v>55</v>
-      </c>
       <c r="R15" t="s">
         <v>55</v>
       </c>
@@ -2279,8 +2324,11 @@
       <c r="Y15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -2302,39 +2350,39 @@
       <c r="G16">
         <v>0.40302103604855899</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>0.40302103604855899</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>0.40302103604855899</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0.87546649359078366</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.91160047462832416</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
         <f t="shared" si="2"/>
         <v>5.1868620675960153E-2</v>
       </c>
-      <c r="Q16" t="s">
-        <v>55</v>
-      </c>
       <c r="R16" t="s">
         <v>55</v>
       </c>
@@ -2359,8 +2407,11 @@
       <c r="Y16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -2382,39 +2433,39 @@
       <c r="G17">
         <v>6.1303995512061338E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="0"/>
         <v>0.70585302000872652</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>0.70585302000872652</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.90446793516560964</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.93109253207712661</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
         <f t="shared" si="2"/>
         <v>0.50690332232126156</v>
       </c>
-      <c r="Q17" t="s">
-        <v>55</v>
-      </c>
       <c r="R17" t="s">
         <v>55</v>
       </c>
@@ -2439,8 +2490,11 @@
       <c r="Y17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -2462,39 +2516,39 @@
       <c r="G18">
         <v>0.35583531931060686</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="0"/>
         <v>0.38849169343418644</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>0.38849169343418644</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.89187690601607983</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.9238873160996891</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="2"/>
         <v>3.2656374123579579E-2</v>
       </c>
-      <c r="Q18" t="s">
-        <v>55</v>
-      </c>
       <c r="R18" t="s">
         <v>55</v>
       </c>
@@ -2519,8 +2573,11 @@
       <c r="Y18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -2542,39 +2599,39 @@
       <c r="G19">
         <v>0.13464026597225634</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="0"/>
         <v>0.69893054258995402</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>0.69893054258995402</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.90090741423828846</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>0.92763138394048072</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="2"/>
         <v>0.55793576704498937</v>
       </c>
-      <c r="Q19" t="s">
-        <v>55</v>
-      </c>
       <c r="R19" t="s">
         <v>55</v>
       </c>
@@ -2599,8 +2656,11 @@
       <c r="Y19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -2622,39 +2682,39 @@
       <c r="G20">
         <v>0.27464303888406622</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="0"/>
         <v>0.5576675547041039</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>0.5576675547041039</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.9090092786590841</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>0.93708935611038102</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <f t="shared" si="2"/>
         <v>0.28302451582003768</v>
       </c>
-      <c r="Q20" t="s">
-        <v>55</v>
-      </c>
       <c r="R20" t="s">
         <v>55</v>
       </c>
@@ -2679,8 +2739,11 @@
       <c r="Y20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -2702,39 +2765,39 @@
       <c r="G21">
         <v>0.22411665501213443</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="0"/>
         <v>0.22411665501213443</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>0.39788573073917155</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.87131516226726158</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0.91342435198676097</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" s="5">
-        <v>0</v>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="2"/>
         <v>4.4876804738595677E-2</v>
       </c>
-      <c r="Q21" t="s">
-        <v>55</v>
-      </c>
       <c r="R21" t="s">
         <v>55</v>
       </c>
@@ -2759,8 +2822,11 @@
       <c r="Y21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -2782,39 +2848,39 @@
       <c r="G22">
         <v>6.3498570325098591E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="0"/>
         <v>6.3498570325098591E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
         <v>0.61204653557925548</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.88547969533249138</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.91031977396062247</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
         <f t="shared" si="2"/>
         <v>0.34751941241039125</v>
       </c>
-      <c r="Q22" t="s">
-        <v>55</v>
-      </c>
       <c r="R22" t="s">
         <v>55</v>
       </c>
@@ -2839,8 +2905,11 @@
       <c r="Y22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -2862,39 +2931,39 @@
       <c r="G23">
         <v>6.1972210073007433E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="0"/>
         <v>0.57588399555899472</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
         <v>0.57588399555899472</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.90283093372213108</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>0.92120430759896865</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23" s="5">
-        <v>0</v>
+      <c r="O23">
+        <v>1</v>
       </c>
       <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <f t="shared" si="2"/>
         <v>0.23678632708676783</v>
       </c>
-      <c r="Q23" t="s">
-        <v>55</v>
-      </c>
       <c r="R23" t="s">
         <v>55</v>
       </c>
@@ -2919,8 +2988,11 @@
       <c r="Y23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -2942,39 +3014,39 @@
       <c r="G24">
         <v>7.7545609934768195E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" si="0"/>
         <v>0.55009825467145734</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>0.55009825467145734</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0.89978804313945515</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>0.91706534120327221</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="5">
-        <v>0</v>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="2"/>
         <v>0.21436960035348429</v>
       </c>
-      <c r="Q24" t="s">
-        <v>55</v>
-      </c>
       <c r="R24" t="s">
         <v>55</v>
       </c>
@@ -2999,8 +3071,11 @@
       <c r="Y24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -3022,39 +3097,39 @@
       <c r="G25">
         <v>7.5336572527583759E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>0.57569085939872455</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>0.57569085939872455</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>0.88790023592854739</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>0.91464288914777314</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" s="5">
-        <v>0</v>
+      <c r="O25">
+        <v>1</v>
       </c>
       <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="2"/>
         <v>0.26829638627391433</v>
       </c>
-      <c r="Q25" t="s">
-        <v>55</v>
-      </c>
       <c r="R25" t="s">
         <v>55</v>
       </c>
@@ -3079,8 +3154,11 @@
       <c r="Y25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -3102,39 +3180,39 @@
       <c r="G26">
         <v>7.0422535211267609E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="0"/>
         <v>0.72891340438065655</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>0.72891340438065655</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>0.88564788465186872</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>0.90597071686632435</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" s="5">
-        <v>0</v>
+      <c r="O26">
+        <v>1</v>
       </c>
       <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="2"/>
         <v>0.55090237240936113</v>
       </c>
-      <c r="Q26" t="s">
-        <v>55</v>
-      </c>
       <c r="R26" t="s">
         <v>55</v>
       </c>
@@ -3159,8 +3237,11 @@
       <c r="Y26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -3182,39 +3263,39 @@
       <c r="G27">
         <v>0.14423637789890781</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="0"/>
         <v>0.40770762515839654</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
         <v>0.40770762515839654</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>0.89591480006487301</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>0.9126731326724169</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="2"/>
         <v>7.4823501015748861E-3</v>
       </c>
-      <c r="Q27" t="s">
-        <v>55</v>
-      </c>
       <c r="R27" t="s">
         <v>55</v>
       </c>
@@ -3239,8 +3320,11 @@
       <c r="Y27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -3262,39 +3346,39 @@
       <c r="G28">
         <v>6.6183197590092599E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="0"/>
         <v>0.68954591096731011</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
         <v>0.68954591096731011</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>0.90604908818891272</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>0.93126542835174619</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" s="5">
-        <v>0</v>
+      <c r="O28">
+        <v>1</v>
       </c>
       <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="2"/>
         <v>0.48622113131763922</v>
       </c>
-      <c r="Q28" t="s">
-        <v>55</v>
-      </c>
       <c r="R28" t="s">
         <v>55</v>
       </c>
@@ -3319,8 +3403,11 @@
       <c r="Y28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -3342,39 +3429,39 @@
       <c r="G29">
         <v>2.8949390484497333E-2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="0"/>
         <v>0.45559985878346104</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
         <v>0.47333499470437979</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0.89301212863024371</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>0.90875557244409022</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="2"/>
         <v>1.7735135920918743E-2</v>
       </c>
-      <c r="Q29" t="s">
-        <v>55</v>
-      </c>
       <c r="R29" t="s">
         <v>55</v>
       </c>
@@ -3399,8 +3486,11 @@
       <c r="Y29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -3422,39 +3512,39 @@
       <c r="G30">
         <v>0.25879872595581649</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="0"/>
         <v>0.5847330061321877</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="1"/>
         <v>0.5847330061321877</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>0.84474042015358397</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>0.87636044542534974</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30">
         <v>1</v>
       </c>
       <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="2"/>
         <v>0.32593428017637122</v>
       </c>
-      <c r="Q30" t="s">
-        <v>55</v>
-      </c>
       <c r="R30" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3569,11 @@
       <c r="Y30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -3502,39 +3595,39 @@
       <c r="G31">
         <v>5.9890912502177727E-2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="0"/>
         <v>0.43325426499953096</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="1"/>
         <v>0.47420898162666347</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>0.86717878393454817</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>0.89894685507936323</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
       </c>
       <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="2"/>
         <v>4.0954716627132515E-2</v>
       </c>
-      <c r="Q31" t="s">
-        <v>55</v>
-      </c>
       <c r="R31" t="s">
         <v>55</v>
       </c>
@@ -3559,8 +3652,11 @@
       <c r="Y31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -3582,39 +3678,39 @@
       <c r="G32">
         <v>6.9224937306817516E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="0"/>
         <v>6.9224937306817516E-2</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="1"/>
         <v>0.49854201901207207</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>0.87703953761955911</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>0.91841808488825094</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="O32" s="5">
-        <v>0</v>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="2"/>
         <v>9.6547501020586679E-2</v>
       </c>
-      <c r="Q32" t="s">
-        <v>55</v>
-      </c>
       <c r="R32" t="s">
         <v>55</v>
       </c>
@@ -3639,8 +3735,11 @@
       <c r="Y32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -3662,39 +3761,39 @@
       <c r="G33">
         <v>0.50044707641342112</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="0"/>
         <v>0.50044707641342112</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="1"/>
         <v>0.50044707641342112</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>0.86373189506735537</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>0.9013472844789272</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>0</v>
       </c>
       <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
         <f t="shared" si="2"/>
         <v>0.23780067721082954</v>
       </c>
-      <c r="Q33" t="s">
-        <v>55</v>
-      </c>
       <c r="R33" t="s">
         <v>55</v>
       </c>
@@ -3719,8 +3818,11 @@
       <c r="Y33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -3742,39 +3844,39 @@
       <c r="G34">
         <v>8.9676479848866494E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="0"/>
         <v>0.37098551637279598</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="1"/>
         <v>0.49354534005037781</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>0.89671601757574693</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>0.92020741838192499</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5">
         <f t="shared" si="2"/>
         <v>0.12255982367758184</v>
       </c>
-      <c r="Q34" t="s">
-        <v>55</v>
-      </c>
       <c r="R34" t="s">
         <v>55</v>
       </c>
@@ -3799,8 +3901,11 @@
       <c r="Y34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -3822,39 +3927,39 @@
       <c r="G35">
         <v>0.21242982444973457</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="0"/>
         <v>0.21242982444973457</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="1"/>
         <v>0.39062798365434803</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>0.86350445201714854</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>0.89563141508707467</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5">
         <f t="shared" si="2"/>
         <v>2.729367433452573E-2</v>
       </c>
-      <c r="Q35" t="s">
-        <v>55</v>
-      </c>
       <c r="R35" t="s">
         <v>55</v>
       </c>
@@ -3879,8 +3984,11 @@
       <c r="Y35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -3902,39 +4010,39 @@
       <c r="G36">
         <v>2.8175366851094539E-2</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="0"/>
         <v>0.59524597065191243</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="1"/>
         <v>0.59524597065191243</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>0.90519611312229509</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>0.92677308328138974</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" s="5">
-        <v>0</v>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
         <f t="shared" si="2"/>
         <v>0.25909610295886454</v>
       </c>
-      <c r="Q36" t="s">
-        <v>55</v>
-      </c>
       <c r="R36" t="s">
         <v>55</v>
       </c>
@@ -3959,8 +4067,11 @@
       <c r="Y36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -3982,39 +4093,39 @@
       <c r="G37">
         <v>9.2954410894020137E-2</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="0"/>
         <v>0.52056161718683924</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <f t="shared" si="1"/>
         <v>0.52056161718683924</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>0.88699996999069708</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>0.91432288162203379</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
         <f t="shared" si="2"/>
         <v>0.17733231836251379</v>
       </c>
-      <c r="Q37" t="s">
-        <v>55</v>
-      </c>
       <c r="R37" t="s">
         <v>55</v>
       </c>
@@ -4039,8 +4150,11 @@
       <c r="Y37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -4062,39 +4176,39 @@
       <c r="G38">
         <v>4.44208659297501E-2</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="0"/>
         <v>0.71410699014981149</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="1"/>
         <v>0.71410699014981149</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>0.88396444320011203</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>0.91262666610604215</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="5">
-        <v>0</v>
+      <c r="O38">
+        <v>1</v>
       </c>
       <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
         <f t="shared" si="2"/>
         <v>0.49730782630728781</v>
       </c>
-      <c r="Q38" t="s">
-        <v>55</v>
-      </c>
       <c r="R38" t="s">
         <v>55</v>
       </c>
@@ -4119,8 +4233,11 @@
       <c r="Y38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -4142,39 +4259,39 @@
       <c r="G39">
         <v>8.9223295218911078E-2</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="0"/>
         <v>0.43515611114402514</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <f t="shared" si="1"/>
         <v>0.44688666390188991</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>0.90416755946003857</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>0.92880258899676371</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
       </c>
       <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5">
         <f t="shared" si="2"/>
         <v>1.1730552757864776E-2</v>
       </c>
-      <c r="Q39" t="s">
-        <v>55</v>
-      </c>
       <c r="R39" t="s">
         <v>55</v>
       </c>
@@ -4199,8 +4316,11 @@
       <c r="Y39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -4222,65 +4342,68 @@
       <c r="G40">
         <v>9.4794618265401157E-2</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="0"/>
         <v>0.39810172984326392</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="1"/>
         <v>0.44738145718984684</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>0.862772250145314</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>0.90494519720376287</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="5">
-        <v>1</v>
+      <c r="O40">
+        <v>0</v>
       </c>
       <c r="P40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="5">
         <f t="shared" si="2"/>
         <v>4.9279727346582924E-2</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.9360864119999999</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>51.787312759999999</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>36.949732449999999</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>8.3268683729999999</v>
       </c>
-      <c r="U40" s="8">
+      <c r="V40" s="8">
         <v>6.7319180000000003</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.72699999999999998</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>46.2</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>5419.1</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>21.7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -4302,65 +4425,68 @@
       <c r="G41">
         <v>9.5266903348033047E-2</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" si="0"/>
         <v>0.52488816009424799</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <f t="shared" si="1"/>
         <v>0.52488816009424799</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>0.87665210534395888</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>0.90980223391561199</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5">
         <f t="shared" si="2"/>
         <v>0.29669972776336107</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>1.7904692820000001</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>42.76415626</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>43.814641250000001</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>11.630733206999999</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <v>10.346676</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.75800000000000001</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>33.700000000000003</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>6564.1</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -4382,65 +4508,68 @@
       <c r="G42">
         <v>7.5847282922404557E-2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" si="0"/>
         <v>0.4927187268079492</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <f t="shared" si="1"/>
         <v>0.4927187268079492</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>0.89795041909782902</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>0.92328921597720937</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
       </c>
       <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
         <f t="shared" si="2"/>
         <v>0.13840191308650118</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>3.5899175269999999</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>50.967546149999997</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>37.603984429999997</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>7.8385518940000001</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <v>10.150722999999999</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.72</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>50.3</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>5282.8</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>15.2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -4462,65 +4591,68 @@
       <c r="G43">
         <v>0.10050571729060842</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" si="0"/>
         <v>0.51188211864217148</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <f t="shared" si="1"/>
         <v>0.51188211864217148</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>0.8959661574241149</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>0.92346728981335691</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
         <f t="shared" si="2"/>
         <v>0.20625881089306097</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>1.3985131479999999</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>46.055711070000001</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>43.054472029999999</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>9.4913037490000001</v>
       </c>
-      <c r="U43" s="8">
+      <c r="V43" s="8">
         <v>12.125382999999999</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.78400000000000003</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>29.5</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>7921.7</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>12.3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -4542,65 +4674,68 @@
       <c r="G44">
         <v>6.4210450172401318E-2</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" si="0"/>
         <v>0.60989077230969546</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="1"/>
         <v>0.60989077230969546</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>0.89551304197616166</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>0.92827113942703587</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
       <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
         <f t="shared" si="2"/>
         <v>0.34612880669351143</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>1.6567153610000001</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>49.84070045</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>41.25268449</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>7.2498997000000003</v>
       </c>
-      <c r="U44" s="8">
+      <c r="V44" s="8">
         <v>8.3598099999999995</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.74399999999999999</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>36.6</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>6800</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>24.2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -4622,65 +4757,68 @@
       <c r="G45">
         <v>0.10239775794062694</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" si="0"/>
         <v>0.59575461905750471</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <f t="shared" si="1"/>
         <v>0.59575461905750471</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>0.89207833696004446</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>0.92481622778449801</v>
       </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
       </c>
       <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
         <f t="shared" si="2"/>
         <v>0.36064978202200543</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>3.4472192430000002</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>41.987130380000004</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>44.446146769999999</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>10.119503601</v>
       </c>
-      <c r="U45" s="8">
+      <c r="V45" s="8">
         <v>8.699503</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.77800000000000002</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>33.9</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>5888.5</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>23.5</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -4702,65 +4840,68 @@
       <c r="G46">
         <v>0.10280765470037714</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1">
         <f t="shared" si="0"/>
         <v>0.42240536387763655</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <f t="shared" si="1"/>
         <v>0.42240536387763655</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>0.90582578674330749</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>0.9296925858951175</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46">
         <v>0</v>
       </c>
       <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
         <f t="shared" si="2"/>
         <v>5.0286352842575655E-3</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>3.097675411</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>52.033127180000001</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>36.349257129999998</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>8.5199402860000006</v>
       </c>
-      <c r="U46" s="8">
+      <c r="V46" s="8">
         <v>13.276405</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.75600000000000001</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>34</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>7991</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>15.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -4782,65 +4923,68 @@
       <c r="G47">
         <v>8.5842479160709959E-2</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" si="0"/>
         <v>0.52935095783755248</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <f t="shared" si="1"/>
         <v>0.52935095783755248</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>0.90196195123886602</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>0.93056134707412486</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
       </c>
       <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
         <f t="shared" si="2"/>
         <v>0.20894274968658583</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3.7989975579999999</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>47.248425650000001</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>41.107826760000002</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>7.8447500329999995</v>
       </c>
-      <c r="U47" s="8">
+      <c r="V47" s="8">
         <v>12.738279</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.754</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>36.6</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>6957.9</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>23.6</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -4862,65 +5006,68 @@
       <c r="G48">
         <v>0.1265628530541538</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" si="0"/>
         <v>0.47972998418317392</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <f t="shared" si="1"/>
         <v>0.47972998418317392</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>0.8819289913314956</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>0.90996795299773003</v>
       </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>1</v>
       </c>
       <c r="P48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="5">
         <f t="shared" si="2"/>
         <v>0.17454997363862318</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>1.0068805119999999</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>36.394030430000001</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>51.28307006</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>11.316018995</v>
       </c>
-      <c r="U48" s="8">
+      <c r="V48" s="8">
         <v>2.9504969999999999</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.78300000000000003</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>31</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>8316.2000000000007</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -4942,65 +5089,68 @@
       <c r="G49">
         <v>0.18103529246678352</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" si="0"/>
         <v>0.45899444704093029</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="1"/>
         <v>0.45899444704093029</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>0.83345248694654872</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>0.87699874677256184</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>1</v>
       </c>
       <c r="P49" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="5">
         <f t="shared" si="2"/>
         <v>0.26105131649377089</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>0.78538898800000001</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>27.06493094</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>47.03830507</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>25.111374998999999</v>
       </c>
-      <c r="U49" s="8">
-        <v>0</v>
-      </c>
-      <c r="V49">
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <v>0.82299999999999995</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>24.6</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>9483.2000000000007</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -5022,65 +5172,68 @@
       <c r="G50">
         <v>7.6644965389465011E-2</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" si="0"/>
         <v>0.42241578960911969</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="1"/>
         <v>0.43941226422377189</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>0.86449991101619506</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>0.90583144676532579</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50">
         <v>0</v>
       </c>
       <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
         <f t="shared" si="2"/>
         <v>1.6996474614652202E-2</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>1.4755642840000001</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>48.725468079999999</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>39.641193719999997</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>10.157773915</v>
       </c>
-      <c r="U50" s="8">
+      <c r="V50" s="8">
         <v>5.4343700000000004</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.75700000000000001</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>31</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>7006.2</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>16.5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -5102,65 +5255,68 @@
       <c r="G51">
         <v>0.15497833137997766</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" si="0"/>
         <v>0.42372373190874651</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="1"/>
         <v>0.42372373190874651</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>0.87344363766218303</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>0.91130629878034231</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51">
         <v>0</v>
       </c>
       <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
         <f t="shared" si="2"/>
         <v>5.6065850799967343E-2</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>3.2971402360000002</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>45.456491819999997</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>43.358311669999999</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>7.8880562780000005</v>
       </c>
-      <c r="U51" s="8">
+      <c r="V51" s="8">
         <v>11.367115999999999</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.77600000000000002</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>28.2</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>6521</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>27.3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -5182,65 +5338,68 @@
       <c r="G52">
         <v>0.48473068963588567</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
         <f t="shared" si="0"/>
         <v>0.48473068963588567</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="1"/>
         <v>0.48473068963588567</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>0.870214888905113</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>0.90005618251990815</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52">
         <v>0</v>
       </c>
       <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
         <f t="shared" si="2"/>
         <v>0.23726159181162257</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>4.3801678300000004</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>49.946208470000002</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>35.765222999999999</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>9.9084007009999997</v>
       </c>
-      <c r="U52" s="8">
+      <c r="V52" s="8">
         <v>10.203025</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.73899999999999999</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>51.1</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>5997</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -5262,65 +5421,68 @@
       <c r="G53">
         <v>7.7570527456367791E-2</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1">
         <f t="shared" si="0"/>
         <v>0.52480554158120818</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <f t="shared" si="1"/>
         <v>0.52480554158120818</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>0.88907620849819369</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>0.92053709760716129</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5">
         <f t="shared" si="2"/>
         <v>0.22375295073720058</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>3.4543008890000002</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>45.994480879999998</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>42.537406570000002</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>8.0138116559999997</v>
       </c>
-      <c r="U53" s="8">
+      <c r="V53" s="8">
         <v>4.3065819999999997</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.745</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>42.3</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>9481.2999999999993</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>25.3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -5342,65 +5504,68 @@
       <c r="G54">
         <v>0.41928417524539141</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="0"/>
         <v>0.40331577687335407</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="1"/>
         <v>0.41928417524539141</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>0.85754172740150691</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>0.89152028386058646</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54">
         <v>0</v>
       </c>
       <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
         <f t="shared" si="2"/>
         <v>1.596839837203734E-2</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2.0897658460000001</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>48.890184589999997</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>39.408716849999998</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>9.6113327060000007</v>
       </c>
-      <c r="U54" s="8">
+      <c r="V54" s="8">
         <v>7.3985070000000004</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.747</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>38.700000000000003</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>5668.8</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>14.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -5422,65 +5587,68 @@
       <c r="G55">
         <v>3.8986828195091291E-2</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1">
         <f t="shared" si="0"/>
         <v>0.55871596331323747</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <f t="shared" si="1"/>
         <v>0.55871596331323747</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>0.90437860954275895</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>0.92986650469753562</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55">
         <v>0</v>
       </c>
       <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
         <f t="shared" si="2"/>
         <v>0.23456384468127656</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>1.623755684</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>48.946171810000003</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>42.077854250000001</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>7.3522182620000001</v>
       </c>
-      <c r="U55" s="8">
+      <c r="V55" s="8">
         <v>12.436527</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.755</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>30</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>6608.4</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>7.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -5502,65 +5670,68 @@
       <c r="G56">
         <v>6.0759245972213161E-2</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1">
         <f t="shared" si="0"/>
         <v>0.53866349227056287</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <f t="shared" si="1"/>
         <v>0.53866349227056287</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>0.88525110793527062</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>0.91600029025469853</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56">
         <v>0</v>
       </c>
       <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
         <f t="shared" si="2"/>
         <v>0.21973452481899414</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>1.5592208809999999</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>43.71229014</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>45.650249209999998</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>9.0782397689999996</v>
       </c>
-      <c r="U56" s="8">
+      <c r="V56" s="8">
         <v>8.9097059999999999</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.755</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>39.9</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>7981.8</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -5582,65 +5753,68 @@
       <c r="G57">
         <v>5.1283612070670948E-2</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1">
         <f t="shared" si="0"/>
         <v>0.67257620257787654</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <f t="shared" si="1"/>
         <v>0.67257620257787654</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>0.89326446000135939</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>0.92748362445414845</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
       </c>
       <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
         <f t="shared" si="2"/>
         <v>0.44026296166664131</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>3.2357870310000001</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>55.466951510000001</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>32.882741860000003</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>8.4145196039999988</v>
       </c>
-      <c r="U57" s="8">
+      <c r="V57" s="8">
         <v>15.248385000000001</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.73599999999999999</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>40.700000000000003</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>5559.1</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -5662,65 +5836,68 @@
       <c r="G58">
         <v>5.3287792957902924E-2</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" s="1">
         <f t="shared" si="0"/>
         <v>0.40755859158058427</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <f t="shared" si="1"/>
         <v>0.49711207375319338</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>0.9087743205390264</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>0.93586662281478483</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
       </c>
       <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
         <f t="shared" si="2"/>
         <v>8.9553482172609111E-2</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>3.259077241</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>41.798958910000003</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>42.852985869999998</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>12.088977981999999</v>
       </c>
-      <c r="U58" s="8">
+      <c r="V58" s="8">
         <v>10.319316000000001</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.751</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>34.1</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>6199.9</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>23.4</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -5742,65 +5919,68 @@
       <c r="G59">
         <v>0.12569723446581113</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1">
         <f t="shared" si="0"/>
         <v>0.34600382260014823</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="1"/>
         <v>0.48749853727035142</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>0.87539612532261757</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>0.89476269216286575</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59">
         <v>0</v>
       </c>
       <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
         <f t="shared" si="2"/>
         <v>0.14149471467020319</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>1.298642839</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>40.728320320000002</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>46.679120429999998</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>11.29391641</v>
       </c>
-      <c r="U59" s="7">
+      <c r="V59" s="7">
         <v>4.8017640000000004</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.76500000000000001</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>44.2</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>6675.9</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>21.3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -5822,65 +6002,68 @@
       <c r="G60">
         <v>8.2847832210812059E-2</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1">
         <f t="shared" si="0"/>
         <v>0.50717367922353962</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="1"/>
         <v>0.50717367922353962</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>0.8918653309662693</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>0.91297092782253064</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="5">
         <f t="shared" si="2"/>
         <v>0.26064367845527414</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>0.81326379999999998</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>35.766136430000003</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>48.477569000000003</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>14.943030767</v>
       </c>
-      <c r="U60" s="7">
+      <c r="V60" s="7">
         <v>10.508645</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.78800000000000003</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>27.4</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>8752.5</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>7.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -5902,65 +6085,68 @@
       <c r="G61">
         <v>2.996787443860182E-2</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1">
         <f t="shared" si="0"/>
         <v>0.60344910256205353</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="1"/>
         <v>0.60344910256205353</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>0.91237702719869018</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>0.92179284220048618</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61">
         <v>0</v>
       </c>
       <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
         <f t="shared" si="2"/>
         <v>0.27266770022535847</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2.23377984</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>47.71757839</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>41.356731269999997</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>8.6919104989999987</v>
       </c>
-      <c r="U61" s="7">
+      <c r="V61" s="7">
         <v>8.5429949999999995</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.754</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>44.5</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>5941</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>15.2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -5982,65 +6168,68 @@
       <c r="G62">
         <v>3.3875999773101143E-2</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62" s="1">
         <f t="shared" si="0"/>
         <v>0.53525441034658805</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <f t="shared" si="1"/>
         <v>0.53525441034658805</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>0.90169353113880735</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>0.91865391716712341</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62">
         <v>0</v>
       </c>
       <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
         <f t="shared" si="2"/>
         <v>0.1655000283623575</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>0.65209749900000002</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>39.371901630000004</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>48.623686409999998</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>11.352314461000001</v>
       </c>
-      <c r="U62" s="7">
+      <c r="V62" s="7">
         <v>11.474292999999999</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.8</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>24.5</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>8593.1</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>12.7</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -6062,65 +6251,68 @@
       <c r="G63">
         <v>4.6761272602426185E-2</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63" s="1">
         <f t="shared" si="0"/>
         <v>0.628725108720531</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <f t="shared" si="1"/>
         <v>0.628725108720531</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>0.91406684376351388</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>0.92937316881937848</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
       </c>
       <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
         <f t="shared" si="2"/>
         <v>0.36827649347676811</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2.0368794330000002</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>40.161702130000002</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>47.985815600000002</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>9.8156028370000001</v>
       </c>
-      <c r="U63" s="7">
+      <c r="V63" s="7">
         <v>10.704836999999999</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.77300000000000002</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>31.5</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>7332.2</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>23.4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -6142,65 +6334,68 @@
       <c r="G64">
         <v>5.5756913758006059E-2</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64" s="1">
         <f t="shared" si="0"/>
         <v>0.79052678615758898</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <f t="shared" si="1"/>
         <v>0.79052678615758898</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>0.9121101660591332</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>0.9278986976702267</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
       </c>
       <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
         <f t="shared" si="2"/>
         <v>0.67752345960975124</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>1.4324734450000001</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>34.088012139999996</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>51.842185129999997</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>12.637329287</v>
       </c>
-      <c r="U64" s="7">
+      <c r="V64" s="7">
         <v>11.843988</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.8</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>25.2</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>9189.7000000000007</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>27.5</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -6222,65 +6417,68 @@
       <c r="G65">
         <v>6.283328105395232E-2</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65" s="1">
         <f t="shared" si="0"/>
         <v>0.5710868883312421</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <f t="shared" si="1"/>
         <v>0.5710868883312421</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <v>0.91822322658098232</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>0.93369482664217462</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65">
         <v>0</v>
       </c>
       <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
         <f t="shared" si="2"/>
         <v>0.2641546424090338</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2.1715452690000001</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>44.692534600000002</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>39.877467670000001</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>13.258452462000001</v>
       </c>
-      <c r="U65" s="7">
+      <c r="V65" s="7">
         <v>14.997187</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.79700000000000004</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>27.4</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>8803.6</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>14.9</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -6302,65 +6500,68 @@
       <c r="G66">
         <v>6.8991179110031303E-2</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1">
         <f t="shared" si="0"/>
         <v>0.5354914964869657</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <f t="shared" si="1"/>
         <v>0.5354914964869657</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <v>0.90915994859212523</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>0.92680839476397026</v>
       </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
       </c>
       <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
         <f t="shared" si="2"/>
         <v>0.20180795412261698</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>1.830587024</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>40.23171988</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>45.386199789999999</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>12.551493305000001</v>
       </c>
-      <c r="U66" s="7">
+      <c r="V66" s="7">
         <v>10.141033999999999</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.78400000000000003</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>29.6</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>8237.2000000000007</v>
       </c>
-      <c r="Y66">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -6382,65 +6583,68 @@
       <c r="G67">
         <v>7.3176228769247412E-2</v>
       </c>
-      <c r="H67" s="1">
-        <f t="shared" ref="H67:H96" si="3">IF(C67="PC",G67,IF(C67="PN",F67,IF(C67="FA",E67)))</f>
+      <c r="H67">
+        <v>11</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67:I96" si="3">IF(C67="PC",G67,IF(C67="PN",F67,IF(C67="FA",E67)))</f>
         <v>0.39761458295770075</v>
       </c>
-      <c r="I67" s="1">
-        <f t="shared" ref="I67:I96" si="4">IF(D67="PC",G67,IF(D67="PN",F67,IF(D67="FA",E67)))</f>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J96" si="4">IF(D67="PC",G67,IF(D67="PN",F67,IF(D67="FA",E67)))</f>
         <v>0.45683531066315675</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K67" s="1">
         <v>0.89780943214629449</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>0.91379190671201505</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67">
         <v>0</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" ref="P67:P96" si="5">LARGE(E67:G67,1)-LARGE(E67:G67,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" ref="Q67:Q96" si="5">LARGE(E67:G67,1)-LARGE(E67:G67,2)</f>
         <v>5.9220727705456E-2</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>0.80652404300000002</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>28.7268057</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>56.998257619999997</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>13.468412638</v>
       </c>
-      <c r="U67" s="7">
+      <c r="V67" s="7">
         <v>3.3008999999999999</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.79900000000000004</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>26.2</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>8992.7000000000007</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>16.5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -6462,65 +6666,68 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1">
         <f t="shared" si="3"/>
         <v>0.5119955312224922</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <f t="shared" si="4"/>
         <v>0.5119955312224922</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>0.85970294390112456</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>0.88946329947182945</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>1</v>
       </c>
       <c r="P68" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="5">
         <f t="shared" si="5"/>
         <v>0.5119955312224922</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>0.52149701900000001</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>22.331191749999999</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>48.222795980000001</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>28.924515249999999</v>
       </c>
-      <c r="U68" s="6">
-        <v>0</v>
-      </c>
-      <c r="V68">
+      <c r="V68" s="6">
+        <v>0</v>
+      </c>
+      <c r="W68">
         <v>0.84099999999999997</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>16.7</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>11828.3</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>6.7</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -6542,65 +6749,68 @@
       <c r="G69">
         <v>5.2203041100015057E-2</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
+        <v>9</v>
+      </c>
+      <c r="I69" s="1">
         <f t="shared" si="3"/>
         <v>0.43136197119486125</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <f t="shared" si="4"/>
         <v>0.44841170271490943</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>0.88844100546826033</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>0.9114041926541927</v>
       </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>1</v>
       </c>
       <c r="P69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="5">
         <f t="shared" si="5"/>
         <v>1.7049731520048184E-2</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>1.365091453</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>41.027485159999998</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>45.813766549999997</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>11.793656838</v>
       </c>
-      <c r="U69" s="7">
+      <c r="V69" s="7">
         <v>4.9426769999999998</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.78300000000000003</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>29.5</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>7416.4</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>17.5</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -6622,65 +6832,68 @@
       <c r="G70">
         <v>8.6548269819266083E-2</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1">
         <f t="shared" si="3"/>
         <v>0.42110218920827558</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <f t="shared" si="4"/>
         <v>0.42730102267674525</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K70" s="1">
         <v>0.8828714524207012</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>0.90347628185104201</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" s="5">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>1</v>
       </c>
       <c r="P70" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="5">
         <f t="shared" si="5"/>
         <v>6.1988334684696667E-3</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>0.95240921000000001</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>33.720033229999999</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>53.153928319999999</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>12.173629243000001</v>
       </c>
-      <c r="U70" s="7">
+      <c r="V70" s="7">
         <v>11.535704000000001</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.79200000000000004</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>28.5</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>7802.9</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -6702,65 +6915,68 @@
       <c r="G71">
         <v>0.56131767775603392</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1">
         <f t="shared" si="3"/>
         <v>0.56131767775603392</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <f t="shared" si="4"/>
         <v>0.56131767775603392</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>0.87416622860814208</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>0.90359216935181719</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71">
         <v>0</v>
       </c>
       <c r="P71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
         <f t="shared" si="5"/>
         <v>0.37003968253968256</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>2.0671225340000001</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>46.889884459999998</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>40.452723409999997</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>8.10253786</v>
       </c>
-      <c r="U71" s="7">
+      <c r="V71" s="7">
         <v>8.6455040000000007</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.75600000000000001</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>42.4</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>6289.4</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>9.5</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -6782,65 +6998,68 @@
       <c r="G72">
         <v>3.3240179485160982E-2</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1">
         <f t="shared" si="3"/>
         <v>0.45717547036133199</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <f t="shared" si="4"/>
         <v>0.45717547036133199</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K72" s="1">
         <v>0.89646590343454458</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>0.91538257173219983</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" s="5">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>1</v>
       </c>
       <c r="P72" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="5">
         <f t="shared" si="5"/>
         <v>3.7943792804849275E-2</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>40.103365799999999</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>48.436699130000001</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>1.00803007</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>10.175147751999999</v>
       </c>
-      <c r="U72" s="7">
+      <c r="V72" s="7">
         <v>7.9615460000000002</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.76600000000000001</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>34.4</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>7666.2</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>23.8</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -6862,65 +7081,68 @@
       <c r="G73">
         <v>0.43734624325727312</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
+        <v>9</v>
+      </c>
+      <c r="I73" s="1">
         <f t="shared" si="3"/>
         <v>0.43734624325727312</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <f t="shared" si="4"/>
         <v>0.45430744577606247</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K73" s="1">
         <v>0.88217842344168751</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>0.89817757055603398</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73" s="5">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>1</v>
       </c>
       <c r="P73" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="5">
         <f t="shared" si="5"/>
         <v>1.6961202518789353E-2</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>36.584166969999998</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>47.804657710000001</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>1.683206462</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>13.508185624999999</v>
       </c>
-      <c r="U73" s="7">
+      <c r="V73" s="7">
         <v>7.3592149999999998</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.77400000000000002</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>32.6</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>7210.1</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>13.1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -6942,65 +7164,68 @@
       <c r="G74">
         <v>1.8831754623364907E-2</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
         <f t="shared" si="3"/>
         <v>0.56964648173207033</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <f t="shared" si="4"/>
         <v>0.56964648173207033</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>0.91392714349178139</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>0.93140473428282278</v>
       </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74">
         <v>0</v>
       </c>
       <c r="P74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
         <f t="shared" si="5"/>
         <v>0.26350360847992782</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>43.630863220000002</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>46.641407469999997</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>1.1396011399999999</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>8.7121670959999999</v>
       </c>
-      <c r="U74" s="7">
+      <c r="V74" s="7">
         <v>14.342577</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.77500000000000002</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>24.5</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>8800.1</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>7.2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -7022,65 +7247,68 @@
       <c r="G75">
         <v>8.4424778761061942E-2</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75" s="1">
         <f t="shared" si="3"/>
         <v>0.62831858407079644</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <f t="shared" si="4"/>
         <v>0.62831858407079644</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>0.90080926468536349</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>0.92028042483522943</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75">
         <v>0</v>
       </c>
       <c r="P75" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
         <f t="shared" si="5"/>
         <v>0.40156074014481091</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>39.193860209999997</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>47.903606930000002</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>1.372859179</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>12.333409038000001</v>
       </c>
-      <c r="U75" s="7">
+      <c r="V75" s="7">
         <v>9.2382019999999994</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.78600000000000003</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>32.9</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>8400.7999999999993</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>19.7</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -7102,65 +7330,68 @@
       <c r="G76">
         <v>6.5054511193862449E-2</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76" s="1">
         <f t="shared" si="3"/>
         <v>0.58315761137780964</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="1">
         <f t="shared" si="4"/>
         <v>0.58315761137780964</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>0.90096649820246966</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>0.92261066791803537</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
       </c>
       <c r="P76" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
         <f t="shared" si="5"/>
         <v>0.28440037686751307</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>47.457627119999998</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>39.737144499999999</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>1.129345016</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>11.225488529</v>
       </c>
-      <c r="U76" s="7">
+      <c r="V76" s="7">
         <v>12.613242</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.76</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>37.700000000000003</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>6587.9</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>15.9</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -7182,65 +7413,68 @@
       <c r="G77">
         <v>1.9119788576667924E-2</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77" s="1">
         <f t="shared" si="3"/>
         <v>0.63885443072110459</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <f t="shared" si="4"/>
         <v>0.63885443072110459</v>
       </c>
-      <c r="J77" s="1">
+      <c r="K77" s="1">
         <v>0.91228070175438591</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>0.93028706746568723</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
       </c>
       <c r="P77" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
         <f t="shared" si="5"/>
         <v>0.3455045574672348</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>42.637383900000003</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>44.830366359999999</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>0.80301857600000004</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>11.128054959999998</v>
       </c>
-      <c r="U77" s="7">
+      <c r="V77" s="7">
         <v>6.9192590000000003</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.76300000000000001</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>29.4</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>7408.3</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>23.3</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -7262,65 +7496,68 @@
       <c r="G78">
         <v>5.8466365230229765E-2</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1">
         <f t="shared" si="3"/>
         <v>0.64420042447171721</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="1">
         <f t="shared" si="4"/>
         <v>0.64420042447171721</v>
       </c>
-      <c r="J78" s="1">
+      <c r="K78" s="1">
         <v>0.8595881718383146</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>0.89736014485847704</v>
       </c>
-      <c r="L78" s="1">
-        <v>1</v>
-      </c>
-      <c r="M78">
+      <c r="M78" s="1">
         <v>1</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78">
         <v>1</v>
       </c>
       <c r="P78" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="5">
         <f t="shared" si="5"/>
         <v>0.44294546461197742</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>1.829671056</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>41.516579329999999</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>46.100664930000001</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>10.553084680000001</v>
       </c>
-      <c r="U78" s="6">
+      <c r="V78" s="6">
         <v>7.4685949999999997</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.77800000000000002</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>42.4</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>6154.8</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>20.3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -7342,65 +7579,68 @@
       <c r="G79">
         <v>4.2392676226863352E-2</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79" s="1">
         <f t="shared" si="3"/>
         <v>0.51456016813153549</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <f t="shared" si="4"/>
         <v>0.51456016813153549</v>
       </c>
-      <c r="J79" s="1">
+      <c r="K79" s="1">
         <v>0.85715754279644218</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>0.90431493072718105</v>
       </c>
-      <c r="L79" s="1">
-        <v>1</v>
-      </c>
-      <c r="M79">
+      <c r="M79" s="1">
         <v>1</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
-      <c r="O79" s="5">
-        <v>0</v>
+      <c r="O79">
+        <v>1</v>
       </c>
       <c r="P79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
         <f t="shared" si="5"/>
         <v>0.25728579505542515</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>0.66116050000000004</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>33.240921530000001</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>49.73340726</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>16.364510713000001</v>
       </c>
-      <c r="U79" s="6">
+      <c r="V79" s="6">
         <v>9.8544319999999992</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.79500000000000004</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>26.6</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>8888.2999999999993</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>7.8</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -7422,65 +7662,68 @@
       <c r="G80">
         <v>9.956174507917602E-3</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1">
         <f t="shared" si="3"/>
         <v>0.81671171377525309</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="1">
         <f t="shared" si="4"/>
         <v>0.81671171377525309</v>
       </c>
-      <c r="J80" s="1">
+      <c r="K80" s="1">
         <v>0.8943012823139006</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>0.9212844713370576</v>
       </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
+      <c r="M80" s="1">
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80">
         <v>1</v>
       </c>
       <c r="P80" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="5">
         <f t="shared" si="5"/>
         <v>0.69274817902789865</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>1.745268796</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>42.885014460000001</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>45.63416754</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>9.7355492099999985</v>
       </c>
-      <c r="U80" s="6">
+      <c r="V80" s="6">
         <v>6.9966879999999998</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.76500000000000001</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>43.8</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>5976.5</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -7502,65 +7745,68 @@
       <c r="G81">
         <v>6.5401617250673852E-2</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81" s="1">
         <f t="shared" si="3"/>
         <v>0.46766576819407008</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <f t="shared" si="4"/>
         <v>0.46766576819407008</v>
       </c>
-      <c r="J81" s="1">
+      <c r="K81" s="1">
         <v>0.87230080505605301</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>0.91552840700206439</v>
       </c>
-      <c r="L81" s="1">
-        <v>1</v>
-      </c>
-      <c r="M81">
+      <c r="M81" s="1">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
       </c>
       <c r="P81" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="5">
         <f t="shared" si="5"/>
         <v>0.14582210242587601</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>0.77438136800000001</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>40.002328970000001</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>48.531004369999998</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>10.692285298000002</v>
       </c>
-      <c r="U81" s="6">
+      <c r="V81" s="6">
         <v>10.273946</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.81299999999999994</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>21.6</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>8244.7999999999993</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>11.5</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -7582,65 +7828,68 @@
       <c r="G82">
         <v>0.10959637653673665</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82" s="1">
         <f t="shared" si="3"/>
         <v>0.49139873714272964</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J82" s="1">
         <f t="shared" si="4"/>
         <v>0.49139873714272964</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
         <v>0.88990151695655628</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>0.92595825728116821</v>
       </c>
-      <c r="L82" s="1">
-        <v>1</v>
-      </c>
-      <c r="M82">
+      <c r="M82" s="1">
         <v>1</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82">
         <v>1</v>
       </c>
       <c r="P82" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="5">
         <f t="shared" si="5"/>
         <v>0.27604364220531469</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>0.86034807499999999</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>40.818736469999997</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>47.482216659999999</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>10.838698793999999</v>
       </c>
-      <c r="U82" s="6">
+      <c r="V82" s="6">
         <v>8.4051720000000003</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.78400000000000003</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>29.6</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>7015.1</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>23.7</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -7662,65 +7911,68 @@
       <c r="G83">
         <v>0.18130085359157391</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1">
         <f t="shared" si="3"/>
         <v>0.50082364099236265</v>
       </c>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <f t="shared" si="4"/>
         <v>0.50082364099236265</v>
       </c>
-      <c r="J83" s="1">
+      <c r="K83" s="1">
         <v>0.88885437927056532</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>0.9261398018637943</v>
       </c>
-      <c r="L83" s="1">
-        <v>1</v>
-      </c>
-      <c r="M83">
+      <c r="M83" s="1">
         <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83">
         <v>1</v>
       </c>
       <c r="P83" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="5">
         <f t="shared" si="5"/>
         <v>0.29186841711176564</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>1.317309914</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>30.852784840000002</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>52.940836609999998</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>14.889068639000001</v>
       </c>
-      <c r="U83" s="6">
+      <c r="V83" s="6">
         <v>10.075908999999999</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.8</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>27.7</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>8570.4</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -7742,65 +7994,68 @@
       <c r="G84">
         <v>8.1367170082006945E-2</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84">
+        <v>9</v>
+      </c>
+      <c r="I84" s="1">
         <f t="shared" si="3"/>
         <v>0.48696225354297124</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J84" s="1">
         <f t="shared" si="4"/>
         <v>0.48696225354297124</v>
       </c>
-      <c r="J84" s="1">
+      <c r="K84" s="1">
         <v>0.89130998254738991</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>0.92431019974312412</v>
       </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
+      <c r="M84" s="1">
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84">
         <v>1</v>
       </c>
       <c r="P84" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="5">
         <f t="shared" si="5"/>
         <v>0.16979120218685173</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>1.3430368699999999</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>41.243858760000002</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>44.129666190000002</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>13.283438175000001</v>
       </c>
-      <c r="U84" s="6">
+      <c r="V84" s="6">
         <v>18.070150000000002</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.80200000000000005</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>24.6</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>8024.6</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>16.5</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -7822,65 +8077,68 @@
       <c r="G85">
         <v>0.10448780058134413</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="I85" s="1">
         <f t="shared" si="3"/>
         <v>0.53796353386770013</v>
       </c>
-      <c r="I85" s="1">
+      <c r="J85" s="1">
         <f t="shared" si="4"/>
         <v>0.53796353386770013</v>
       </c>
-      <c r="J85" s="1">
+      <c r="K85" s="1">
         <v>0.88113624898133414</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>0.9260640586897273</v>
       </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
+      <c r="M85" s="1">
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85">
         <v>1</v>
       </c>
       <c r="P85" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="5">
         <f t="shared" si="5"/>
         <v>0.33277547784726502</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>1.411572254</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>40.093928920000003</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>45.919632729999996</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>12.574866099000001</v>
       </c>
-      <c r="U85" s="6">
+      <c r="V85" s="6">
         <v>15.223293</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.78800000000000003</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>29.7</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>7731.7</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>24.6</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -7902,65 +8160,68 @@
       <c r="G86">
         <v>4.5628602523277842E-2</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1">
         <f t="shared" si="3"/>
         <v>0.5571929541698577</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <f t="shared" si="4"/>
         <v>0.5571929541698577</v>
       </c>
-      <c r="J86" s="1">
+      <c r="K86" s="1">
         <v>0.8788230876591403</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>0.9111265135226887</v>
       </c>
-      <c r="L86" s="1">
-        <v>1</v>
-      </c>
-      <c r="M86">
+      <c r="M86" s="1">
         <v>1</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86">
         <v>1</v>
       </c>
       <c r="P86" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="5">
         <f t="shared" si="5"/>
         <v>0.30179370389777904</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>0.51814314400000006</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>27.15330367</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>58.232944789999998</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>14.095608391000001</v>
       </c>
-      <c r="U86" s="6">
+      <c r="V86" s="6">
         <v>4.0133359999999998</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.81200000000000006</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>25</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>8994</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>16.3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -7982,65 +8243,68 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87" s="1">
         <f t="shared" si="3"/>
         <v>0.52055276994780741</v>
       </c>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <f t="shared" si="4"/>
         <v>0.52055276994780741</v>
       </c>
-      <c r="J87" s="1">
+      <c r="K87" s="1">
         <v>0.84238891956119921</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>0.88535057432787856</v>
       </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-      <c r="M87">
+      <c r="M87" s="1">
         <v>1</v>
       </c>
       <c r="N87">
         <v>1</v>
       </c>
       <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" s="5">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5">
         <f t="shared" si="5"/>
         <v>0.52055276994780741</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>0.53672551000000002</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>19.827017949999998</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>48.584393210000002</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>31.051863322999999</v>
       </c>
-      <c r="U87" s="6">
-        <v>0</v>
-      </c>
-      <c r="V87">
+      <c r="V87" s="6">
+        <v>0</v>
+      </c>
+      <c r="W87">
         <v>0.85399999999999998</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>17.5</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>11891.4</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -8062,65 +8326,68 @@
       <c r="G88">
         <v>3.861668693631317E-2</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88">
+        <v>9</v>
+      </c>
+      <c r="I88" s="1">
         <f t="shared" si="3"/>
         <v>0.39990607728153937</v>
       </c>
-      <c r="I88" s="1">
+      <c r="J88" s="1">
         <f t="shared" si="4"/>
         <v>0.48465326863101615</v>
       </c>
-      <c r="J88" s="1">
+      <c r="K88" s="1">
         <v>0.87065052157047751</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>0.90293252984317296</v>
       </c>
-      <c r="L88" s="1">
-        <v>1</v>
-      </c>
-      <c r="M88">
+      <c r="M88" s="1">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
       </c>
       <c r="P88" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="5">
         <f t="shared" si="5"/>
         <v>8.474719134947678E-2</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>1.3941412200000001</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>38.712818200000001</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>47.115764519999999</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>12.777276062000002</v>
       </c>
-      <c r="U88" s="6">
+      <c r="V88" s="6">
         <v>5.4401279999999996</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.79200000000000004</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>27.3</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>7226</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -8142,65 +8409,68 @@
       <c r="G89">
         <v>6.1922274127820295E-2</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89" s="1">
         <f t="shared" si="3"/>
         <v>0.40453235264884208</v>
       </c>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <f t="shared" si="4"/>
         <v>0.44868800318059837</v>
       </c>
-      <c r="J89" s="1">
+      <c r="K89" s="1">
         <v>0.86453276047261007</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>0.90065699072483685</v>
       </c>
-      <c r="L89" s="1">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89" s="4">
-        <v>0</v>
-      </c>
-      <c r="O89" s="5">
-        <v>1</v>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
       </c>
       <c r="P89" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="5">
         <f t="shared" si="5"/>
         <v>4.4155650531756296E-2</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>1.6017441859999999</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>34.482558140000002</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>52.735465120000001</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>11.180232558</v>
       </c>
-      <c r="U89" s="6">
+      <c r="V89" s="6">
         <v>11.988904</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.79900000000000004</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>29.9</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>7189.5</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>31.2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -8222,65 +8492,68 @@
       <c r="G90">
         <v>0.56098373766995469</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1">
         <f t="shared" si="3"/>
         <v>0.56098373766995469</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <f t="shared" si="4"/>
         <v>0.56098373766995469</v>
       </c>
-      <c r="J90" s="1">
+      <c r="K90" s="1">
         <v>0.8426846391463072</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>0.91354053881918351</v>
       </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
+      <c r="M90" s="1">
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
         <f t="shared" si="5"/>
         <v>0.32568648360437213</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>1.7819706500000001</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>43.127335700000003</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>44.570534440000003</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>10.520159207999999</v>
       </c>
-      <c r="U90" s="6">
+      <c r="V90" s="6">
         <v>8.2052370000000003</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.76700000000000002</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>42.8</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>5804.6</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>10.9</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -8302,65 +8575,68 @@
       <c r="G91">
         <v>2.8930041898681369E-2</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91" s="1">
         <f t="shared" si="3"/>
         <v>0.41486949739720314</v>
       </c>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <f t="shared" si="4"/>
         <v>0.43837629006221318</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>0.87711790254068756</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>0.88993226773900058</v>
       </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
-      <c r="M91">
+      <c r="M91" s="1">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
       </c>
       <c r="P91" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="5">
         <f t="shared" si="5"/>
         <v>2.3506792665010046E-2</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>1.7307773689999999</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>35.707333589999998</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>50.050780750000001</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>12.511108289999999</v>
       </c>
-      <c r="U91" s="6">
+      <c r="V91" s="6">
         <v>6.1321070000000004</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.77500000000000002</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>32.5</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>7719.6</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>22.2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -8382,65 +8658,68 @@
       <c r="G92">
         <v>0.19629560989436273</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92" s="1">
         <f t="shared" si="3"/>
         <v>0.40503003412225141</v>
       </c>
-      <c r="I92" s="1">
+      <c r="J92" s="1">
         <f t="shared" si="4"/>
         <v>0.40503003412225141</v>
       </c>
-      <c r="J92" s="1">
+      <c r="K92" s="1">
         <v>0.88337715116671001</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>0.90903752478869448</v>
       </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-      <c r="M92">
+      <c r="M92" s="1">
         <v>1</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" s="5">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="5">
         <f t="shared" si="5"/>
         <v>5.172846101014944E-2</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>2.0549413140000001</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>37.051978669999997</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>45.090203099999997</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>15.802876916999999</v>
       </c>
-      <c r="U92" s="6">
+      <c r="V92" s="6">
         <v>7.1683909999999997</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.78200000000000003</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>35.5</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>7054.4</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>13.4</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -8462,65 +8741,68 @@
       <c r="G93">
         <v>2.9205451684314404E-2</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1">
         <f t="shared" si="3"/>
         <v>0.48238337823060307</v>
       </c>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <f t="shared" si="4"/>
         <v>0.48238337823060307</v>
       </c>
-      <c r="J93" s="1">
+      <c r="K93" s="1">
         <v>0.88688350088704904</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>0.92778314661703476</v>
       </c>
-      <c r="L93" s="1">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
+      <c r="M93" s="1">
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
       </c>
       <c r="P93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="5">
         <f t="shared" si="5"/>
         <v>0.16236364121302643</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>1.0016336809999999</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>41.982913310000001</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>48.300704359999997</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>8.7147486549999993</v>
       </c>
-      <c r="U93" s="6">
+      <c r="V93" s="6">
         <v>13.916064</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.78800000000000003</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>27.8</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>7753.5</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>7.5</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -8542,65 +8824,68 @@
       <c r="G94">
         <v>9.714091007651085E-2</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94">
+        <v>11</v>
+      </c>
+      <c r="I94" s="1">
         <f t="shared" si="3"/>
         <v>0.54085741721649161</v>
       </c>
-      <c r="I94" s="1">
+      <c r="J94" s="1">
         <f t="shared" si="4"/>
         <v>0.54085741721649161</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>0.86979833223316405</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>0.91075462255346196</v>
       </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
+      <c r="M94" s="1">
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
       </c>
       <c r="P94" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="5">
         <f t="shared" si="5"/>
         <v>0.3044791376266146</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>1.0990104919999999</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>36.663547489999999</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>51.96408306</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>10.273358950999999</v>
       </c>
-      <c r="U94" s="6">
+      <c r="V94" s="6">
         <v>9.2054550000000006</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.79300000000000004</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>38.9</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>7778.1</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>20.3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -8622,65 +8907,68 @@
       <c r="G95">
         <v>7.529124119085287E-2</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="I95" s="1">
         <f t="shared" si="3"/>
         <v>0.57107723284912992</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <f t="shared" si="4"/>
         <v>0.57107723284912992</v>
       </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <v>0.88041633955479015</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>0.91694385774090326</v>
       </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
+      <c r="M95" s="1">
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
       </c>
-      <c r="O95" s="5">
+      <c r="O95">
         <v>1</v>
       </c>
       <c r="P95" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="5">
         <f t="shared" si="5"/>
         <v>0.39814468574715955</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>2.5035665819999999</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>47.09280072</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>40.098820420000003</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>10.304812277</v>
       </c>
-      <c r="U95" s="6">
+      <c r="V95" s="6">
         <v>13.137703999999999</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.77800000000000002</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>34.4</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>6222.2</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -8702,61 +8990,64 @@
       <c r="G96">
         <v>2.6347052456506245E-2</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96" s="1">
         <f t="shared" si="3"/>
         <v>0.69954328255761766</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <f t="shared" si="4"/>
         <v>0.69954328255761766</v>
       </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <v>0.88355764969326589</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>0.91807087538136589</v>
       </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
+      <c r="M96" s="1">
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96">
         <v>1</v>
       </c>
       <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="5">
         <f t="shared" si="5"/>
         <v>0.50904194936508351</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>1.1683633520000001</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>37.69772905</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>49.616288179999998</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>11.517619420999999</v>
       </c>
-      <c r="U96" s="6">
+      <c r="V96" s="6">
         <v>6.5416299999999996</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.77700000000000002</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>31.3</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>6569.9</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>26.3</v>
       </c>
     </row>
@@ -8774,12 +9065,12 @@
       <selection activeCell="B1" sqref="B1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -8787,7 +9078,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -8795,7 +9086,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -8803,7 +9094,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -8811,7 +9102,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -8819,7 +9110,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -8827,7 +9118,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -8835,7 +9126,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -8843,7 +9134,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -8851,7 +9142,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -8859,7 +9150,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17">
       <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
@@ -8867,7 +9158,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17">
       <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
@@ -8875,7 +9166,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="17">
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
@@ -8883,7 +9174,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="17">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
@@ -8891,7 +9182,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
@@ -8899,7 +9190,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="17">
       <c r="A16" s="9" t="s">
         <v>60</v>
       </c>
@@ -8907,7 +9198,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -8915,7 +9206,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17">
       <c r="A18" s="9" t="s">
         <v>61</v>
       </c>
@@ -8923,7 +9214,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -8931,12 +9222,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="21">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Data/ResultadosDepartamentales.xlsx
+++ b/Data/ResultadosDepartamentales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/Departamentales-vs-COVID/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4424C6-05F1-004F-BCAF-6DE8CDEDB96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6FB7E-B6C0-B64B-A710-6CD8A7BA193B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-580" yWindow="500" windowWidth="25040" windowHeight="14260" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="25040" windowHeight="14260" xr2:uid="{370EE251-052D-0345-8262-AD0C67B8BEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultadosDepartamentales" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8A9E7C93-B929-2E4C-B0A9-6F387A2E0529}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{3D3BE1DD-7A86-0B4A-8C5F-7AB2A21C38C5}">
       <text>
         <r>
           <rPr>
@@ -147,18 +147,17 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Fuente: otu.opp.gub.uy
-</t>
+          <t>Fuente: otu.opp.gub.uy</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -167,18 +166,36 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Personas de 25 años o más por máximo nivel educativo alcanzado.
+          <t>Personas de 25 años o más por máximo nivel educativo alcanzado.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observatorio territorial OPP, para las elecciones de 2020 se toman los datos de 2019 (más recientes disponiibles)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -193,18 +210,9 @@
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Observatorio territorial OPP, para las elecciones de 2020 se toman los datos de 2019 (más recientes disponiibles)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{18E76EED-5B11-8A4A-89D9-EE4555584897}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{18E76EED-5B11-8A4A-89D9-EE4555584897}">
       <text>
         <r>
           <rPr>
@@ -237,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{FB70BB77-452E-E240-901F-488C5BA744E8}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{FB70BB77-452E-E240-901F-488C5BA744E8}">
       <text>
         <r>
           <rPr>
@@ -270,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{83C062E5-BF08-B143-8F36-E8589B091D26}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{83C062E5-BF08-B143-8F36-E8589B091D26}">
       <text>
         <r>
           <rPr>
@@ -303,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{80C4A0E6-7270-B541-86F9-AB11850F142D}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{80C4A0E6-7270-B541-86F9-AB11850F142D}">
       <text>
         <r>
           <rPr>
@@ -366,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F5FB3BB0-6D4F-9D45-9068-70410B46A047}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{F5FB3BB0-6D4F-9D45-9068-70410B46A047}">
       <text>
         <r>
           <rPr>
@@ -424,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="70">
   <si>
     <t>Votos_Pgob</t>
   </si>
@@ -632,6 +640,9 @@
   <si>
     <t>N_Candidatos</t>
   </si>
+  <si>
+    <t>Comp_Candidato</t>
+  </si>
 </sst>
 </file>
 
@@ -642,7 +653,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,6 +722,12 @@
       <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1072,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB94FE-8E7B-274E-A819-0B36A18610BC}">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1086,7 +1103,7 @@
     <col min="10" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1139,34 +1156,37 @@
         <v>57</v>
       </c>
       <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1221,8 +1241,8 @@
         <f>LARGE(E2:G2,1)-LARGE(E2:G2,2)</f>
         <v>0.31591694044309659</v>
       </c>
-      <c r="R2" t="s">
-        <v>55</v>
+      <c r="R2">
+        <v>0.20602569782897651</v>
       </c>
       <c r="S2" t="s">
         <v>55</v>
@@ -1248,8 +1268,11 @@
       <c r="Z2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1304,8 +1327,8 @@
         <f t="shared" ref="Q3:Q66" si="2">LARGE(E3:G3,1)-LARGE(E3:G3,2)</f>
         <v>5.2940485110259006E-2</v>
       </c>
-      <c r="R3" t="s">
-        <v>55</v>
+      <c r="R3">
+        <v>9.556660156413721E-2</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -1331,8 +1354,11 @@
       <c r="Z3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1387,8 +1413,8 @@
         <f t="shared" si="2"/>
         <v>0.47893820713664048</v>
       </c>
-      <c r="R4" t="s">
-        <v>55</v>
+      <c r="R4">
+        <v>7.7474590960422418E-3</v>
       </c>
       <c r="S4" t="s">
         <v>55</v>
@@ -1414,8 +1440,11 @@
       <c r="Z4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1470,8 +1499,8 @@
         <f t="shared" si="2"/>
         <v>4.6092088600033443E-2</v>
       </c>
-      <c r="R5" t="s">
-        <v>55</v>
+      <c r="R5">
+        <v>1</v>
       </c>
       <c r="S5" t="s">
         <v>55</v>
@@ -1497,8 +1526,11 @@
       <c r="Z5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1553,8 +1585,8 @@
         <f t="shared" si="2"/>
         <v>0.18991995411049989</v>
       </c>
-      <c r="R6" t="s">
-        <v>55</v>
+      <c r="R6">
+        <v>0.50739517153748404</v>
       </c>
       <c r="S6" t="s">
         <v>55</v>
@@ -1580,8 +1612,11 @@
       <c r="Z6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1636,8 +1671,8 @@
         <f t="shared" si="2"/>
         <v>0.68488675958188161</v>
       </c>
-      <c r="R7" t="s">
-        <v>55</v>
+      <c r="R7">
+        <v>6.3835654212050175E-2</v>
       </c>
       <c r="S7" t="s">
         <v>55</v>
@@ -1663,8 +1698,11 @@
       <c r="Z7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1719,8 +1757,8 @@
         <f t="shared" si="2"/>
         <v>2.1551456431277594E-2</v>
       </c>
-      <c r="R8" t="s">
-        <v>55</v>
+      <c r="R8">
+        <v>0.27953797160900312</v>
       </c>
       <c r="S8" t="s">
         <v>55</v>
@@ -1746,8 +1784,11 @@
       <c r="Z8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1802,8 +1843,8 @@
         <f t="shared" si="2"/>
         <v>0.19406738172593352</v>
       </c>
-      <c r="R9" t="s">
-        <v>55</v>
+      <c r="R9">
+        <v>1.8639449898369576E-2</v>
       </c>
       <c r="S9" t="s">
         <v>55</v>
@@ -1829,8 +1870,11 @@
       <c r="Z9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1885,8 +1929,8 @@
         <f t="shared" si="2"/>
         <v>3.7014801302329869E-2</v>
       </c>
-      <c r="R10" t="s">
-        <v>55</v>
+      <c r="R10">
+        <v>0.1390145646110939</v>
       </c>
       <c r="S10" t="s">
         <v>55</v>
@@ -1912,8 +1956,11 @@
       <c r="Z10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1968,8 +2015,8 @@
         <f t="shared" si="2"/>
         <v>0.29174745694545712</v>
       </c>
-      <c r="R11" t="s">
-        <v>55</v>
+      <c r="R11">
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>55</v>
@@ -1995,8 +2042,11 @@
       <c r="Z11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2051,8 +2101,8 @@
         <f t="shared" si="2"/>
         <v>5.6495393726694487E-2</v>
       </c>
-      <c r="R12" t="s">
-        <v>55</v>
+      <c r="R12">
+        <v>0.62035404010712658</v>
       </c>
       <c r="S12" t="s">
         <v>55</v>
@@ -2078,8 +2128,11 @@
       <c r="Z12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -2134,8 +2187,8 @@
         <f t="shared" si="2"/>
         <v>7.0384455404361557E-2</v>
       </c>
-      <c r="R13" t="s">
-        <v>55</v>
+      <c r="R13">
+        <v>0.75109918771890594</v>
       </c>
       <c r="S13" t="s">
         <v>55</v>
@@ -2161,8 +2214,11 @@
       <c r="Z13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -2217,8 +2273,8 @@
         <f t="shared" si="2"/>
         <v>6.4624835977573625E-2</v>
       </c>
-      <c r="R14" t="s">
-        <v>55</v>
+      <c r="R14">
+        <v>0.65284329140461206</v>
       </c>
       <c r="S14" t="s">
         <v>55</v>
@@ -2244,8 +2300,11 @@
       <c r="Z14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -2300,8 +2359,8 @@
         <f t="shared" si="2"/>
         <v>7.6538139479245593E-2</v>
       </c>
-      <c r="R15" t="s">
-        <v>55</v>
+      <c r="R15">
+        <v>6.1803352967829683E-2</v>
       </c>
       <c r="S15" t="s">
         <v>55</v>
@@ -2327,8 +2386,11 @@
       <c r="Z15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -2383,8 +2445,8 @@
         <f t="shared" si="2"/>
         <v>5.1868620675960153E-2</v>
       </c>
-      <c r="R16" t="s">
-        <v>55</v>
+      <c r="R16">
+        <v>0.71241399743226785</v>
       </c>
       <c r="S16" t="s">
         <v>55</v>
@@ -2410,8 +2472,11 @@
       <c r="Z16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -2466,8 +2531,8 @@
         <f t="shared" si="2"/>
         <v>0.50690332232126156</v>
       </c>
-      <c r="R17" t="s">
-        <v>55</v>
+      <c r="R17">
+        <v>0.16494023904382465</v>
       </c>
       <c r="S17" t="s">
         <v>55</v>
@@ -2493,8 +2558,11 @@
       <c r="Z17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -2549,8 +2617,8 @@
         <f t="shared" si="2"/>
         <v>3.2656374123579579E-2</v>
       </c>
-      <c r="R18" t="s">
-        <v>55</v>
+      <c r="R18">
+        <v>0.81813326211777282</v>
       </c>
       <c r="S18" t="s">
         <v>55</v>
@@ -2576,8 +2644,11 @@
       <c r="Z18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -2632,8 +2703,8 @@
         <f t="shared" si="2"/>
         <v>0.55793576704498937</v>
       </c>
-      <c r="R19" t="s">
-        <v>55</v>
+      <c r="R19">
+        <v>6.830504894021594E-3</v>
       </c>
       <c r="S19" t="s">
         <v>55</v>
@@ -2659,8 +2730,11 @@
       <c r="Z19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -2715,8 +2789,8 @@
         <f t="shared" si="2"/>
         <v>0.28302451582003768</v>
       </c>
-      <c r="R20" t="s">
-        <v>55</v>
+      <c r="R20">
+        <v>0.15633234740521651</v>
       </c>
       <c r="S20" t="s">
         <v>55</v>
@@ -2742,8 +2816,11 @@
       <c r="Z20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -2798,8 +2875,8 @@
         <f t="shared" si="2"/>
         <v>4.4876804738595677E-2</v>
       </c>
-      <c r="R21" t="s">
-        <v>55</v>
+      <c r="R21">
+        <v>0.59454150728832833</v>
       </c>
       <c r="S21" t="s">
         <v>55</v>
@@ -2825,8 +2902,11 @@
       <c r="Z21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -2881,8 +2961,8 @@
         <f t="shared" si="2"/>
         <v>0.34751941241039125</v>
       </c>
-      <c r="R22" t="s">
-        <v>55</v>
+      <c r="R22">
+        <v>0.73186500534155507</v>
       </c>
       <c r="S22" t="s">
         <v>55</v>
@@ -2908,8 +2988,11 @@
       <c r="Z22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -2964,8 +3047,8 @@
         <f t="shared" si="2"/>
         <v>0.23678632708676783</v>
       </c>
-      <c r="R23" t="s">
-        <v>55</v>
+      <c r="R23">
+        <v>5.4010632704328987E-2</v>
       </c>
       <c r="S23" t="s">
         <v>55</v>
@@ -2991,8 +3074,11 @@
       <c r="Z23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -3047,8 +3133,8 @@
         <f t="shared" si="2"/>
         <v>0.21436960035348429</v>
       </c>
-      <c r="R24" t="s">
-        <v>55</v>
+      <c r="R24">
+        <v>9.7190809359741226E-2</v>
       </c>
       <c r="S24" t="s">
         <v>55</v>
@@ -3074,8 +3160,11 @@
       <c r="Z24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -3130,8 +3219,8 @@
         <f t="shared" si="2"/>
         <v>0.26829638627391433</v>
       </c>
-      <c r="R25" t="s">
-        <v>55</v>
+      <c r="R25">
+        <v>0.80513429161721395</v>
       </c>
       <c r="S25" t="s">
         <v>55</v>
@@ -3157,8 +3246,11 @@
       <c r="Z25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -3213,8 +3305,8 @@
         <f t="shared" si="2"/>
         <v>0.55090237240936113</v>
       </c>
-      <c r="R26" t="s">
-        <v>55</v>
+      <c r="R26">
+        <v>0.18316067886268461</v>
       </c>
       <c r="S26" t="s">
         <v>55</v>
@@ -3240,8 +3332,11 @@
       <c r="Z26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -3296,8 +3391,8 @@
         <f t="shared" si="2"/>
         <v>7.4823501015748861E-3</v>
       </c>
-      <c r="R27" t="s">
-        <v>55</v>
+      <c r="R27">
+        <v>0.60023253560701484</v>
       </c>
       <c r="S27" t="s">
         <v>55</v>
@@ -3323,8 +3418,11 @@
       <c r="Z27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -3379,8 +3477,8 @@
         <f t="shared" si="2"/>
         <v>0.48622113131763922</v>
       </c>
-      <c r="R28" t="s">
-        <v>55</v>
+      <c r="R28">
+        <v>0.13397191120315838</v>
       </c>
       <c r="S28" t="s">
         <v>55</v>
@@ -3406,8 +3504,11 @@
       <c r="Z28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -3462,8 +3563,8 @@
         <f t="shared" si="2"/>
         <v>1.7735135920918743E-2</v>
       </c>
-      <c r="R29" t="s">
-        <v>55</v>
+      <c r="R29">
+        <v>7.8117801908522522E-2</v>
       </c>
       <c r="S29" t="s">
         <v>55</v>
@@ -3489,8 +3590,11 @@
       <c r="Z29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -3545,8 +3649,8 @@
         <f t="shared" si="2"/>
         <v>0.32593428017637122</v>
       </c>
-      <c r="R30" t="s">
-        <v>55</v>
+      <c r="R30">
+        <v>1</v>
       </c>
       <c r="S30" t="s">
         <v>55</v>
@@ -3572,8 +3676,11 @@
       <c r="Z30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -3628,8 +3735,8 @@
         <f t="shared" si="2"/>
         <v>4.0954716627132515E-2</v>
       </c>
-      <c r="R31" t="s">
-        <v>55</v>
+      <c r="R31">
+        <v>3.0464886251236389E-2</v>
       </c>
       <c r="S31" t="s">
         <v>55</v>
@@ -3655,8 +3762,11 @@
       <c r="Z31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -3711,8 +3821,8 @@
         <f t="shared" si="2"/>
         <v>9.6547501020586679E-2</v>
       </c>
-      <c r="R32" t="s">
-        <v>55</v>
+      <c r="R32">
+        <v>0.7806632742586419</v>
       </c>
       <c r="S32" t="s">
         <v>55</v>
@@ -3738,8 +3848,11 @@
       <c r="Z32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -3794,8 +3907,8 @@
         <f t="shared" si="2"/>
         <v>0.23780067721082954</v>
       </c>
-      <c r="R33" t="s">
-        <v>55</v>
+      <c r="R33">
+        <v>0.78919773878913912</v>
       </c>
       <c r="S33" t="s">
         <v>55</v>
@@ -3821,8 +3934,11 @@
       <c r="Z33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -3877,8 +3993,8 @@
         <f t="shared" si="2"/>
         <v>0.12255982367758184</v>
       </c>
-      <c r="R34" t="s">
-        <v>55</v>
+      <c r="R34">
+        <v>0.3482854864433812</v>
       </c>
       <c r="S34" t="s">
         <v>55</v>
@@ -3904,8 +4020,11 @@
       <c r="Z34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -3960,8 +4079,8 @@
         <f t="shared" si="2"/>
         <v>2.729367433452573E-2</v>
       </c>
-      <c r="R35" t="s">
-        <v>55</v>
+      <c r="R35">
+        <v>0.44793873227961545</v>
       </c>
       <c r="S35" t="s">
         <v>55</v>
@@ -3987,8 +4106,11 @@
       <c r="Z35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -4043,8 +4165,8 @@
         <f t="shared" si="2"/>
         <v>0.25909610295886454</v>
       </c>
-      <c r="R36" t="s">
-        <v>55</v>
+      <c r="R36">
+        <v>0.77686848021014876</v>
       </c>
       <c r="S36" t="s">
         <v>55</v>
@@ -4070,8 +4192,11 @@
       <c r="Z36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -4126,8 +4251,8 @@
         <f t="shared" si="2"/>
         <v>0.17733231836251379</v>
       </c>
-      <c r="R37" t="s">
-        <v>55</v>
+      <c r="R37">
+        <v>0.35976342897994995</v>
       </c>
       <c r="S37" t="s">
         <v>55</v>
@@ -4153,8 +4278,11 @@
       <c r="Z37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -4209,8 +4337,8 @@
         <f t="shared" si="2"/>
         <v>0.49730782630728781</v>
       </c>
-      <c r="R38" t="s">
-        <v>55</v>
+      <c r="R38">
+        <v>1.9914399130685434E-2</v>
       </c>
       <c r="S38" t="s">
         <v>55</v>
@@ -4236,8 +4364,11 @@
       <c r="Z38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -4292,8 +4423,8 @@
         <f t="shared" si="2"/>
         <v>1.1730552757864776E-2</v>
       </c>
-      <c r="R39" t="s">
-        <v>55</v>
+      <c r="R39">
+        <v>1</v>
       </c>
       <c r="S39" t="s">
         <v>55</v>
@@ -4319,8 +4450,11 @@
       <c r="Z39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -4376,34 +4510,37 @@
         <v>4.9279727346582924E-2</v>
       </c>
       <c r="R40">
+        <v>0.33834586466165417</v>
+      </c>
+      <c r="S40">
         <v>2.9360864119999999</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>51.787312759999999</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>36.949732449999999</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>8.3268683729999999</v>
       </c>
-      <c r="V40" s="8">
+      <c r="W40" s="8">
         <v>6.7319180000000003</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.72699999999999998</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>46.2</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>5419.1</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>21.7</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -4459,34 +4596,37 @@
         <v>0.29669972776336107</v>
       </c>
       <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <v>1.7904692820000001</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>42.76415626</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>43.814641250000001</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>11.630733206999999</v>
       </c>
-      <c r="V41" s="8">
+      <c r="W41" s="8">
         <v>10.346676</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.75800000000000001</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>33.700000000000003</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>6564.1</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -4542,34 +4682,37 @@
         <v>0.13840191308650118</v>
       </c>
       <c r="R42">
+        <v>0.64006574754285328</v>
+      </c>
+      <c r="S42">
         <v>3.5899175269999999</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>50.967546149999997</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>37.603984429999997</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>7.8385518940000001</v>
       </c>
-      <c r="V42" s="8">
+      <c r="W42" s="8">
         <v>10.150722999999999</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.72</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>50.3</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>5282.8</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>15.2</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -4625,34 +4768,37 @@
         <v>0.20625881089306097</v>
       </c>
       <c r="R43">
+        <v>0.34866001050972151</v>
+      </c>
+      <c r="S43">
         <v>1.3985131479999999</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>46.055711070000001</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>43.054472029999999</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>9.4913037490000001</v>
       </c>
-      <c r="V43" s="8">
+      <c r="W43" s="8">
         <v>12.125382999999999</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.78400000000000003</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>29.5</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>7921.7</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>12.3</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -4708,34 +4854,37 @@
         <v>0.34612880669351143</v>
       </c>
       <c r="R44">
+        <v>1.3485641757893241E-3</v>
+      </c>
+      <c r="S44">
         <v>1.6567153610000001</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>49.84070045</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>41.25268449</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>7.2498997000000003</v>
       </c>
-      <c r="V44" s="8">
+      <c r="W44" s="8">
         <v>8.3598099999999995</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.74399999999999999</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>36.6</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>6800</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>24.2</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -4791,34 +4940,37 @@
         <v>0.36064978202200543</v>
       </c>
       <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
         <v>3.4472192430000002</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>41.987130380000004</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>44.446146769999999</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>10.119503601</v>
       </c>
-      <c r="V45" s="8">
+      <c r="W45" s="8">
         <v>8.699503</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.77800000000000002</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>33.9</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>5888.5</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>23.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -4874,34 +5026,37 @@
         <v>5.0286352842575655E-3</v>
       </c>
       <c r="R46">
+        <v>0.59409418913786549</v>
+      </c>
+      <c r="S46">
         <v>3.097675411</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>52.033127180000001</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>36.349257129999998</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>8.5199402860000006</v>
       </c>
-      <c r="V46" s="8">
+      <c r="W46" s="8">
         <v>13.276405</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.75600000000000001</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>34</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>7991</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>15.4</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -4957,34 +5112,37 @@
         <v>0.20894274968658583</v>
       </c>
       <c r="R47">
+        <v>0.55800091701054555</v>
+      </c>
+      <c r="S47">
         <v>3.7989975579999999</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>47.248425650000001</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>41.107826760000002</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>7.8447500329999995</v>
       </c>
-      <c r="V47" s="8">
+      <c r="W47" s="8">
         <v>12.738279</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.754</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>36.6</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>6957.9</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>23.6</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -5040,34 +5198,37 @@
         <v>0.17454997363862318</v>
       </c>
       <c r="R48">
+        <v>0.12098093801134796</v>
+      </c>
+      <c r="S48">
         <v>1.0068805119999999</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>36.394030430000001</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>51.28307006</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>11.316018995</v>
       </c>
-      <c r="V48" s="8">
+      <c r="W48" s="8">
         <v>2.9504969999999999</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.78300000000000003</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>31</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>8316.2000000000007</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -5123,34 +5284,37 @@
         <v>0.26105131649377089</v>
       </c>
       <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
         <v>0.78538898800000001</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>27.06493094</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>47.03830507</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>25.111374998999999</v>
       </c>
-      <c r="V49" s="8">
-        <v>0</v>
-      </c>
-      <c r="W49">
+      <c r="W49" s="8">
+        <v>0</v>
+      </c>
+      <c r="X49">
         <v>0.82299999999999995</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>24.6</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>9483.2000000000007</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -5206,34 +5370,37 @@
         <v>1.6996474614652202E-2</v>
       </c>
       <c r="R50">
+        <v>0.49252677415558432</v>
+      </c>
+      <c r="S50">
         <v>1.4755642840000001</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>48.725468079999999</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>39.641193719999997</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>10.157773915</v>
       </c>
-      <c r="V50" s="8">
+      <c r="W50" s="8">
         <v>5.4343700000000004</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.75700000000000001</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>31</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>7006.2</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>16.5</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -5289,34 +5456,37 @@
         <v>5.6065850799967343E-2</v>
       </c>
       <c r="R51">
+        <v>0.85493030459473407</v>
+      </c>
+      <c r="S51">
         <v>3.2971402360000002</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>45.456491819999997</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>43.358311669999999</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>7.8880562780000005</v>
       </c>
-      <c r="V51" s="8">
+      <c r="W51" s="8">
         <v>11.367115999999999</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.77600000000000002</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>28.2</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>6521</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>27.3</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -5372,34 +5542,37 @@
         <v>0.23726159181162257</v>
       </c>
       <c r="R52">
+        <v>0.69541093515200558</v>
+      </c>
+      <c r="S52">
         <v>4.3801678300000004</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>49.946208470000002</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>35.765222999999999</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>9.9084007009999997</v>
       </c>
-      <c r="V52" s="8">
+      <c r="W52" s="8">
         <v>10.203025</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.73899999999999999</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>51.1</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>5997</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -5455,34 +5628,37 @@
         <v>0.22375295073720058</v>
       </c>
       <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
         <v>3.4543008890000002</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>45.994480879999998</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>42.537406570000002</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>8.0138116559999997</v>
       </c>
-      <c r="V53" s="8">
+      <c r="W53" s="8">
         <v>4.3065819999999997</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.745</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>42.3</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>9481.2999999999993</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>25.3</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -5538,34 +5714,37 @@
         <v>1.596839837203734E-2</v>
       </c>
       <c r="R54">
+        <v>0.59411007862759124</v>
+      </c>
+      <c r="S54">
         <v>2.0897658460000001</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>48.890184589999997</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>39.408716849999998</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>9.6113327060000007</v>
       </c>
-      <c r="V54" s="8">
+      <c r="W54" s="8">
         <v>7.3985070000000004</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.747</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>38.700000000000003</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>5668.8</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>14.8</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -5621,34 +5800,37 @@
         <v>0.23456384468127656</v>
       </c>
       <c r="R55">
+        <v>0.8927912223133716</v>
+      </c>
+      <c r="S55">
         <v>1.623755684</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>48.946171810000003</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>42.077854250000001</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>7.3522182620000001</v>
       </c>
-      <c r="V55" s="8">
+      <c r="W55" s="8">
         <v>12.436527</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.755</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>30</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>6608.4</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>7.2</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -5704,34 +5886,37 @@
         <v>0.21973452481899414</v>
       </c>
       <c r="R56">
+        <v>0.73486594686400575</v>
+      </c>
+      <c r="S56">
         <v>1.5592208809999999</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>43.71229014</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>45.650249209999998</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>9.0782397689999996</v>
       </c>
-      <c r="V56" s="8">
+      <c r="W56" s="8">
         <v>8.9097059999999999</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.755</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>39.9</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>7981.8</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -5787,34 +5972,37 @@
         <v>0.44026296166664131</v>
       </c>
       <c r="R57">
+        <v>7.9097198593625961E-2</v>
+      </c>
+      <c r="S57">
         <v>3.2357870310000001</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>55.466951510000001</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>32.882741860000003</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>8.4145196039999988</v>
       </c>
-      <c r="V57" s="8">
+      <c r="W57" s="8">
         <v>15.248385000000001</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.73599999999999999</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>40.700000000000003</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>5559.1</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -5870,34 +6058,37 @@
         <v>8.9553482172609111E-2</v>
       </c>
       <c r="R58">
+        <v>0.62640811522725992</v>
+      </c>
+      <c r="S58">
         <v>3.259077241</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>41.798958910000003</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>42.852985869999998</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>12.088977981999999</v>
       </c>
-      <c r="V58" s="8">
+      <c r="W58" s="8">
         <v>10.319316000000001</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.751</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>34.1</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>6199.9</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>23.4</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -5953,34 +6144,37 @@
         <v>0.14149471467020319</v>
       </c>
       <c r="R59">
+        <v>8.8229298562085889E-2</v>
+      </c>
+      <c r="S59">
         <v>1.298642839</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>40.728320320000002</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>46.679120429999998</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>11.29391641</v>
       </c>
-      <c r="V59" s="7">
+      <c r="W59" s="7">
         <v>4.8017640000000004</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.76500000000000001</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>44.2</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>6675.9</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>21.3</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -6036,34 +6230,37 @@
         <v>0.26064367845527414</v>
       </c>
       <c r="R60">
+        <v>0.28139891565732755</v>
+      </c>
+      <c r="S60">
         <v>0.81326379999999998</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>35.766136430000003</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>48.477569000000003</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>14.943030767</v>
       </c>
-      <c r="V60" s="7">
+      <c r="W60" s="7">
         <v>10.508645</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.78800000000000003</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>27.4</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>8752.5</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>7.7</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -6119,34 +6316,37 @@
         <v>0.27266770022535847</v>
       </c>
       <c r="R61">
+        <v>0.76088065473037403</v>
+      </c>
+      <c r="S61">
         <v>2.23377984</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>47.71757839</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>41.356731269999997</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>8.6919104989999987</v>
       </c>
-      <c r="V61" s="7">
+      <c r="W61" s="7">
         <v>8.5429949999999995</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.754</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>44.5</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>5941</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>15.2</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -6202,34 +6402,37 @@
         <v>0.1655000283623575</v>
       </c>
       <c r="R62">
+        <v>0.31593514200932593</v>
+      </c>
+      <c r="S62">
         <v>0.65209749900000002</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>39.371901630000004</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>48.623686409999998</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>11.352314461000001</v>
       </c>
-      <c r="V62" s="7">
+      <c r="W62" s="7">
         <v>11.474292999999999</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.8</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>24.5</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>8593.1</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>12.7</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -6285,34 +6488,37 @@
         <v>0.36827649347676811</v>
       </c>
       <c r="R63">
+        <v>0.38643184796854529</v>
+      </c>
+      <c r="S63">
         <v>2.0368794330000002</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>40.161702130000002</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>47.985815600000002</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>9.8156028370000001</v>
       </c>
-      <c r="V63" s="7">
+      <c r="W63" s="7">
         <v>10.704836999999999</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.77300000000000002</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>31.5</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>7332.2</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>23.4</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -6368,34 +6574,37 @@
         <v>0.67752345960975124</v>
       </c>
       <c r="R64">
+        <v>0.10913892727044344</v>
+      </c>
+      <c r="S64">
         <v>1.4324734450000001</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>34.088012139999996</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>51.842185129999997</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>12.637329287</v>
       </c>
-      <c r="V64" s="7">
+      <c r="W64" s="7">
         <v>11.843988</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.8</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>25.2</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>9189.7000000000007</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>27.5</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -6451,34 +6660,37 @@
         <v>0.2641546424090338</v>
       </c>
       <c r="R65">
+        <v>0.92934946790250594</v>
+      </c>
+      <c r="S65">
         <v>2.1715452690000001</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>44.692534600000002</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>39.877467670000001</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>13.258452462000001</v>
       </c>
-      <c r="V65" s="7">
+      <c r="W65" s="7">
         <v>14.997187</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.79700000000000004</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>27.4</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>8803.6</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>14.9</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -6534,34 +6746,37 @@
         <v>0.20180795412261698</v>
       </c>
       <c r="R66">
+        <v>0.1452470876762722</v>
+      </c>
+      <c r="S66">
         <v>1.830587024</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>40.23171988</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>45.386199789999999</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>12.551493305000001</v>
       </c>
-      <c r="V66" s="7">
+      <c r="W66" s="7">
         <v>10.141033999999999</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.78400000000000003</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>29.6</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>8237.2000000000007</v>
       </c>
-      <c r="Z66">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -6617,34 +6832,37 @@
         <v>5.9220727705456E-2</v>
       </c>
       <c r="R67">
+        <v>0.23458854639460075</v>
+      </c>
+      <c r="S67">
         <v>0.80652404300000002</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>28.7268057</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>56.998257619999997</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>13.468412638</v>
       </c>
-      <c r="V67" s="7">
+      <c r="W67" s="7">
         <v>3.3008999999999999</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.79900000000000004</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>26.2</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>8992.7000000000007</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>16.5</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -6700,34 +6918,37 @@
         <v>0.5119955312224922</v>
       </c>
       <c r="R68">
+        <v>0.2952154656853429</v>
+      </c>
+      <c r="S68">
         <v>0.52149701900000001</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>22.331191749999999</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>48.222795980000001</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>28.924515249999999</v>
       </c>
-      <c r="V68" s="6">
-        <v>0</v>
-      </c>
-      <c r="W68">
+      <c r="W68" s="6">
+        <v>0</v>
+      </c>
+      <c r="X68">
         <v>0.84099999999999997</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>16.7</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>11828.3</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>6.7</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -6783,34 +7004,37 @@
         <v>1.7049731520048184E-2</v>
       </c>
       <c r="R69">
+        <v>0.48692411878237907</v>
+      </c>
+      <c r="S69">
         <v>1.365091453</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>41.027485159999998</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>45.813766549999997</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>11.793656838</v>
       </c>
-      <c r="V69" s="7">
+      <c r="W69" s="7">
         <v>4.9426769999999998</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.78300000000000003</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>29.5</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>7416.4</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>17.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -6866,34 +7090,37 @@
         <v>6.1988334684696667E-3</v>
       </c>
       <c r="R70">
+        <v>3.6743588174083353E-2</v>
+      </c>
+      <c r="S70">
         <v>0.95240921000000001</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>33.720033229999999</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>53.153928319999999</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>12.173629243000001</v>
       </c>
-      <c r="V70" s="7">
+      <c r="W70" s="7">
         <v>11.535704000000001</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.79200000000000004</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>28.5</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>7802.9</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -6949,34 +7176,37 @@
         <v>0.37003968253968256</v>
       </c>
       <c r="R71">
+        <v>0.80608042999297869</v>
+      </c>
+      <c r="S71">
         <v>2.0671225340000001</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>46.889884459999998</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>40.452723409999997</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>8.10253786</v>
       </c>
-      <c r="V71" s="7">
+      <c r="W71" s="7">
         <v>8.6455040000000007</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.75600000000000001</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>42.4</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>6289.4</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>9.5</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -7032,34 +7262,37 @@
         <v>3.7943792804849275E-2</v>
       </c>
       <c r="R72">
+        <v>0.10976444694202497</v>
+      </c>
+      <c r="S72">
         <v>40.103365799999999</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>48.436699130000001</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>1.00803007</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>10.175147751999999</v>
       </c>
-      <c r="V72" s="7">
+      <c r="W72" s="7">
         <v>7.9615460000000002</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.76600000000000001</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>34.4</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>7666.2</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>23.8</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -7115,34 +7348,37 @@
         <v>1.6961202518789353E-2</v>
       </c>
       <c r="R73">
+        <v>0.45904697072838663</v>
+      </c>
+      <c r="S73">
         <v>36.584166969999998</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>47.804657710000001</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>1.683206462</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>13.508185624999999</v>
       </c>
-      <c r="V73" s="7">
+      <c r="W73" s="7">
         <v>7.3592149999999998</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.77400000000000002</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>32.6</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>7210.1</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>13.1</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -7198,34 +7434,37 @@
         <v>0.26350360847992782</v>
       </c>
       <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
         <v>43.630863220000002</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>46.641407469999997</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>1.1396011399999999</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>8.7121670959999999</v>
       </c>
-      <c r="V74" s="7">
+      <c r="W74" s="7">
         <v>14.342577</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.77500000000000002</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>24.5</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>8800.1</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>7.2</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -7281,34 +7520,37 @@
         <v>0.40156074014481091</v>
       </c>
       <c r="R75">
+        <v>0.23014955185659403</v>
+      </c>
+      <c r="S75">
         <v>39.193860209999997</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>47.903606930000002</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>1.372859179</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>12.333409038000001</v>
       </c>
-      <c r="V75" s="7">
+      <c r="W75" s="7">
         <v>9.2382019999999994</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.78600000000000003</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>32.9</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>8400.7999999999993</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>19.7</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -7364,34 +7606,37 @@
         <v>0.28440037686751307</v>
       </c>
       <c r="R76">
+        <v>0.30655305944504291</v>
+      </c>
+      <c r="S76">
         <v>47.457627119999998</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>39.737144499999999</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>1.129345016</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>11.225488529</v>
       </c>
-      <c r="V76" s="7">
+      <c r="W76" s="7">
         <v>12.613242</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.76</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>37.700000000000003</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>6587.9</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>15.9</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -7447,34 +7692,37 @@
         <v>0.3455045574672348</v>
       </c>
       <c r="R77">
+        <v>0.23322287885183624</v>
+      </c>
+      <c r="S77">
         <v>42.637383900000003</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>44.830366359999999</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>0.80301857600000004</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>11.128054959999998</v>
       </c>
-      <c r="V77" s="7">
+      <c r="W77" s="7">
         <v>6.9192590000000003</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.76300000000000001</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>29.4</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>7408.3</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>23.3</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -7530,34 +7778,37 @@
         <v>0.44294546461197742</v>
       </c>
       <c r="R78">
+        <v>0.77322834645669281</v>
+      </c>
+      <c r="S78">
         <v>1.829671056</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>41.516579329999999</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>46.100664930000001</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>10.553084680000001</v>
       </c>
-      <c r="V78" s="6">
+      <c r="W78" s="6">
         <v>7.4685949999999997</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.77800000000000002</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>42.4</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>6154.8</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>20.3</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -7613,34 +7864,37 @@
         <v>0.25728579505542515</v>
       </c>
       <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
         <v>0.66116050000000004</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>33.240921530000001</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>49.73340726</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>16.364510713000001</v>
       </c>
-      <c r="V79" s="6">
+      <c r="W79" s="6">
         <v>9.8544319999999992</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.79500000000000004</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>26.6</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>8888.2999999999993</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>7.8</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -7696,34 +7950,37 @@
         <v>0.69274817902789865</v>
       </c>
       <c r="R80">
+        <v>1.8541409147095178E-2</v>
+      </c>
+      <c r="S80">
         <v>1.745268796</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>42.885014460000001</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>45.63416754</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>9.7355492099999985</v>
       </c>
-      <c r="V80" s="6">
+      <c r="W80" s="6">
         <v>6.9966879999999998</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.76500000000000001</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>43.8</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>5976.5</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -7779,34 +8036,37 @@
         <v>0.14582210242587601</v>
       </c>
       <c r="R81">
+        <v>0.46336206896551729</v>
+      </c>
+      <c r="S81">
         <v>0.77438136800000001</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>40.002328970000001</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>48.531004369999998</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>10.692285298000002</v>
       </c>
-      <c r="V81" s="6">
+      <c r="W81" s="6">
         <v>10.273946</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.81299999999999994</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>21.6</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>8244.7999999999993</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>11.5</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -7862,34 +8122,37 @@
         <v>0.27604364220531469</v>
       </c>
       <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
         <v>0.86034807499999999</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>40.818736469999997</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>47.482216659999999</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>10.838698793999999</v>
       </c>
-      <c r="V82" s="6">
+      <c r="W82" s="6">
         <v>8.4051720000000003</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.78400000000000003</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>29.6</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>7015.1</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>23.7</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -7945,34 +8208,37 @@
         <v>0.29186841711176564</v>
       </c>
       <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
         <v>1.317309914</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>30.852784840000002</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>52.940836609999998</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>14.889068639000001</v>
       </c>
-      <c r="V83" s="6">
+      <c r="W83" s="6">
         <v>10.075908999999999</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.8</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>27.7</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>8570.4</v>
       </c>
-      <c r="Z83">
+      <c r="AA83">
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -8028,34 +8294,37 @@
         <v>0.16979120218685173</v>
       </c>
       <c r="R84">
+        <v>0.81704781704781704</v>
+      </c>
+      <c r="S84">
         <v>1.3430368699999999</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>41.243858760000002</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>44.129666190000002</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>13.283438175000001</v>
       </c>
-      <c r="V84" s="6">
+      <c r="W84" s="6">
         <v>18.070150000000002</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.80200000000000005</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>24.6</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>8024.6</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>16.5</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -8111,34 +8380,37 @@
         <v>0.33277547784726502</v>
       </c>
       <c r="R85">
+        <v>0.14716981132075468</v>
+      </c>
+      <c r="S85">
         <v>1.411572254</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>40.093928920000003</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>45.919632729999996</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>12.574866099000001</v>
       </c>
-      <c r="V85" s="6">
+      <c r="W85" s="6">
         <v>15.223293</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.78800000000000003</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>29.7</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>7731.7</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>24.6</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -8194,34 +8466,37 @@
         <v>0.30179370389777904</v>
       </c>
       <c r="R86">
+        <v>0.38069216757741348</v>
+      </c>
+      <c r="S86">
         <v>0.51814314400000006</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>27.15330367</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>58.232944789999998</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>14.095608391000001</v>
       </c>
-      <c r="V86" s="6">
+      <c r="W86" s="6">
         <v>4.0133359999999998</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.81200000000000006</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>25</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>8994</v>
       </c>
-      <c r="Z86">
+      <c r="AA86">
         <v>16.3</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -8277,34 +8552,37 @@
         <v>0.52055276994780741</v>
       </c>
       <c r="R87">
+        <v>4.733727810650884E-2</v>
+      </c>
+      <c r="S87">
         <v>0.53672551000000002</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>19.827017949999998</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>48.584393210000002</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>31.051863322999999</v>
       </c>
-      <c r="V87" s="6">
-        <v>0</v>
-      </c>
-      <c r="W87">
+      <c r="W87" s="6">
+        <v>0</v>
+      </c>
+      <c r="X87">
         <v>0.85399999999999998</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>17.5</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>11891.4</v>
       </c>
-      <c r="Z87">
+      <c r="AA87">
         <v>6.7</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -8360,34 +8638,37 @@
         <v>8.474719134947678E-2</v>
       </c>
       <c r="R88">
+        <v>0.30817610062893075</v>
+      </c>
+      <c r="S88">
         <v>1.3941412200000001</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>38.712818200000001</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>47.115764519999999</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>12.777276062000002</v>
       </c>
-      <c r="V88" s="6">
+      <c r="W88" s="6">
         <v>5.4401279999999996</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.79200000000000004</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>27.3</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>7226</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -8443,34 +8724,37 @@
         <v>4.4155650531756296E-2</v>
       </c>
       <c r="R89">
+        <v>0.52413793103448281</v>
+      </c>
+      <c r="S89">
         <v>1.6017441859999999</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>34.482558140000002</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>52.735465120000001</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>11.180232558</v>
       </c>
-      <c r="V89" s="6">
+      <c r="W89" s="6">
         <v>11.988904</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.79900000000000004</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>29.9</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>7189.5</v>
       </c>
-      <c r="Z89">
+      <c r="AA89">
         <v>31.2</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -8526,34 +8810,37 @@
         <v>0.32568648360437213</v>
       </c>
       <c r="R90">
+        <v>0.49194991055456172</v>
+      </c>
+      <c r="S90">
         <v>1.7819706500000001</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>43.127335700000003</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>44.570534440000003</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>10.520159207999999</v>
       </c>
-      <c r="V90" s="6">
+      <c r="W90" s="6">
         <v>8.2052370000000003</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.76700000000000002</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>42.8</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>5804.6</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>10.9</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -8609,34 +8896,37 @@
         <v>2.3506792665010046E-2</v>
       </c>
       <c r="R91">
+        <v>0.58294930875576045</v>
+      </c>
+      <c r="S91">
         <v>1.7307773689999999</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>35.707333589999998</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>50.050780750000001</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>12.511108289999999</v>
       </c>
-      <c r="V91" s="6">
+      <c r="W91" s="6">
         <v>6.1321070000000004</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.77500000000000002</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>32.5</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>7719.6</v>
       </c>
-      <c r="Z91">
+      <c r="AA91">
         <v>22.2</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -8692,34 +8982,37 @@
         <v>5.172846101014944E-2</v>
       </c>
       <c r="R92">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="S92">
         <v>2.0549413140000001</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>37.051978669999997</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>45.090203099999997</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>15.802876916999999</v>
       </c>
-      <c r="V92" s="6">
+      <c r="W92" s="6">
         <v>7.1683909999999997</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.78200000000000003</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>35.5</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>7054.4</v>
       </c>
-      <c r="Z92">
+      <c r="AA92">
         <v>13.4</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -8775,34 +9068,37 @@
         <v>0.16236364121302643</v>
       </c>
       <c r="R93">
+        <v>0.91157894736842104</v>
+      </c>
+      <c r="S93">
         <v>1.0016336809999999</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>41.982913310000001</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>48.300704359999997</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>8.7147486549999993</v>
       </c>
-      <c r="V93" s="6">
+      <c r="W93" s="6">
         <v>13.916064</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.78800000000000003</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>27.8</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>7753.5</v>
       </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>7.5</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -8858,34 +9154,37 @@
         <v>0.3044791376266146</v>
       </c>
       <c r="R94">
+        <v>0.50561624379723324</v>
+      </c>
+      <c r="S94">
         <v>1.0990104919999999</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>36.663547489999999</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>51.96408306</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>10.273358950999999</v>
       </c>
-      <c r="V94" s="6">
+      <c r="W94" s="6">
         <v>9.2054550000000006</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.79300000000000004</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>38.9</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>7778.1</v>
       </c>
-      <c r="Z94">
+      <c r="AA94">
         <v>20.3</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -8941,34 +9240,37 @@
         <v>0.39814468574715955</v>
       </c>
       <c r="R95">
+        <v>0.30035335689045944</v>
+      </c>
+      <c r="S95">
         <v>2.5035665819999999</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>47.09280072</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>40.098820420000003</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>10.304812277</v>
       </c>
-      <c r="V95" s="6">
+      <c r="W95" s="6">
         <v>13.137703999999999</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.77800000000000002</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>34.4</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>6222.2</v>
       </c>
-      <c r="Z95">
+      <c r="AA95">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -9024,30 +9326,33 @@
         <v>0.50904194936508351</v>
       </c>
       <c r="R96">
+        <v>2.2873481057900102E-3</v>
+      </c>
+      <c r="S96">
         <v>1.1683633520000001</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>37.69772905</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>49.616288179999998</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>11.517619420999999</v>
       </c>
-      <c r="V96" s="6">
+      <c r="W96" s="6">
         <v>6.5416299999999996</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.77700000000000002</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>31.3</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>6569.9</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>26.3</v>
       </c>
     </row>
